--- a/cet_colg_data.xlsx
+++ b/cet_colg_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="117">
   <si>
     <t>College Code</t>
   </si>
@@ -241,13 +241,127 @@
     <t>Computer Scinence and Data Science</t>
   </si>
   <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Aero Space and Engineering</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>E006</t>
+  </si>
+  <si>
+    <t>M S Ramaiah Institute of Technology, Bengalore</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence and Data Science</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Medical Electronics</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>E007</t>
+  </si>
+  <si>
+    <t>Dayananda Sagar College of Engineering, Bangalore</t>
+  </si>
+  <si>
+    <t>Aeronaut Engineering</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Automobile Engineering</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Computer Science and Business System</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>Computer Science and Design</t>
+  </si>
+  <si>
     <t>CD</t>
   </si>
   <si>
-    <t>Aero Space and Engineering</t>
-  </si>
-  <si>
-    <t>SE</t>
+    <t>CS-IoT, Cyber Security</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>Robotics and Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>E008</t>
+  </si>
+  <si>
+    <t>Bangalore Institute of Technology</t>
+  </si>
+  <si>
+    <t>EC Engg(VLSI Design)</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>E009</t>
+  </si>
+  <si>
+    <t>P E S University (Ring Road Campus)</t>
+  </si>
+  <si>
+    <t>B. Tech in AM</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>B. Tech in EC</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>B. Tech in EE</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>B. Tech in BT</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>B. Tech in CS</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>B. Tech in ME</t>
+  </si>
+  <si>
+    <t>DB</t>
   </si>
 </sst>
 </file>
@@ -380,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -435,6 +549,9 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4405,82 +4522,5167 @@
         <v>36</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2690.0</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="6">
+        <v>5397.0</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43" s="6">
+        <v>5711.0</v>
+      </c>
+      <c r="L43" s="6">
+        <v>6458.0</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O43" s="6">
+        <v>3232.0</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R43" s="6">
+        <v>3791.0</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U43" s="6">
+        <v>2455.0</v>
+      </c>
+      <c r="V43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W43" s="6">
+        <v>5701.0</v>
+      </c>
+      <c r="X43" s="6">
+        <v>20373.0</v>
+      </c>
+      <c r="Y43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z43" s="6">
+        <v>32167.0</v>
+      </c>
+      <c r="AA43" s="6">
+        <v>13531.0</v>
+      </c>
+      <c r="AB43" s="6">
+        <v>32207.0</v>
+      </c>
+      <c r="AC43" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="10">
+        <v>5667.0</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" s="10">
+        <v>5360.0</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K44" s="10">
+        <v>6487.0</v>
+      </c>
+      <c r="L44" s="10">
+        <v>3512.0</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44" s="10">
+        <v>3353.0</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R44" s="10">
+        <v>3031.0</v>
+      </c>
+      <c r="S44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U44" s="10">
+        <v>2561.0</v>
+      </c>
+      <c r="V44" s="10">
+        <v>6053.0</v>
+      </c>
+      <c r="W44" s="10">
+        <v>5124.0</v>
+      </c>
+      <c r="X44" s="10">
+        <v>19019.0</v>
+      </c>
+      <c r="Y44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z44" s="10">
+        <v>19186.0</v>
+      </c>
+      <c r="AA44" s="10">
+        <v>15559.0</v>
+      </c>
+      <c r="AB44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC44" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC45" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="10">
+        <v>21282.0</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="10">
+        <v>40605.0</v>
+      </c>
+      <c r="I46" s="10">
+        <v>20619.0</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="10">
+        <v>17790.0</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O46" s="10">
+        <v>20095.0</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R46" s="10">
+        <v>20901.0</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U46" s="10">
+        <v>9706.0</v>
+      </c>
+      <c r="V46" s="10">
+        <v>40917.0</v>
+      </c>
+      <c r="W46" s="10">
+        <v>16215.0</v>
+      </c>
+      <c r="X46" s="10">
+        <v>41597.0</v>
+      </c>
+      <c r="Y46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z46" s="10">
+        <v>67385.0</v>
+      </c>
+      <c r="AA46" s="10">
+        <v>54406.0</v>
+      </c>
+      <c r="AB46" s="10">
+        <v>151891.0</v>
+      </c>
+      <c r="AC46" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="6">
+        <v>4258.0</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="6">
+        <v>5050.0</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="6">
+        <v>5534.0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>2589.0</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O47" s="6">
+        <v>2504.0</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R47" s="6">
+        <v>2844.0</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T47" s="6">
+        <v>4776.0</v>
+      </c>
+      <c r="U47" s="6">
+        <v>2241.0</v>
+      </c>
+      <c r="V47" s="6">
+        <v>3433.0</v>
+      </c>
+      <c r="W47" s="6">
+        <v>4741.0</v>
+      </c>
+      <c r="X47" s="6">
+        <v>18555.0</v>
+      </c>
+      <c r="Y47" s="6">
+        <v>29723.0</v>
+      </c>
+      <c r="Z47" s="6">
+        <v>30512.0</v>
+      </c>
+      <c r="AA47" s="6">
+        <v>16813.0</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC47" s="7">
+        <v>26477.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="10">
+        <v>33943.0</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="10">
+        <v>41581.0</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="10">
+        <v>56813.0</v>
+      </c>
+      <c r="L48" s="10">
+        <v>38160.0</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O48" s="10">
+        <v>35126.0</v>
+      </c>
+      <c r="P48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R48" s="10">
+        <v>37411.0</v>
+      </c>
+      <c r="S48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U48" s="10">
+        <v>31212.0</v>
+      </c>
+      <c r="V48" s="10">
+        <v>46572.0</v>
+      </c>
+      <c r="W48" s="10">
+        <v>39990.0</v>
+      </c>
+      <c r="X48" s="10">
+        <v>47261.0</v>
+      </c>
+      <c r="Y48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z48" s="10">
+        <v>87623.0</v>
+      </c>
+      <c r="AA48" s="10">
+        <v>64928.0</v>
+      </c>
+      <c r="AB48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC48" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="6">
+        <v>38463.0</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" s="6">
+        <v>26188.0</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" s="6">
+        <v>50572.0</v>
+      </c>
+      <c r="L49" s="6">
+        <v>42170.0</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O49" s="6">
+        <v>24480.0</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R49" s="6">
+        <v>21796.0</v>
+      </c>
+      <c r="S49" s="6">
+        <v>26774.0</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U49" s="6">
+        <v>18616.0</v>
+      </c>
+      <c r="V49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W49" s="6">
+        <v>25688.0</v>
+      </c>
+      <c r="X49" s="6">
+        <v>52050.0</v>
+      </c>
+      <c r="Y49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z49" s="6">
+        <v>81913.0</v>
+      </c>
+      <c r="AA49" s="6">
+        <v>37549.0</v>
+      </c>
+      <c r="AB49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC49" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="50">
-      <c r="F50" s="17"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="18"/>
-      <c r="AA50" s="18"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="18"/>
+      <c r="A50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="10">
+        <v>2330.0</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" s="10">
+        <v>2879.0</v>
+      </c>
+      <c r="J50" s="10">
+        <v>5210.0</v>
+      </c>
+      <c r="K50" s="10">
+        <v>3133.0</v>
+      </c>
+      <c r="L50" s="10">
+        <v>2300.0</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N50" s="10">
+        <v>5976.0</v>
+      </c>
+      <c r="O50" s="10">
+        <v>1941.0</v>
+      </c>
+      <c r="P50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R50" s="10">
+        <v>2363.0</v>
+      </c>
+      <c r="S50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U50" s="10">
+        <v>1254.0</v>
+      </c>
+      <c r="V50" s="10">
+        <v>2687.0</v>
+      </c>
+      <c r="W50" s="10">
+        <v>2172.0</v>
+      </c>
+      <c r="X50" s="10">
+        <v>10779.0</v>
+      </c>
+      <c r="Y50" s="10">
+        <v>19248.0</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>15164.0</v>
+      </c>
+      <c r="AA50" s="10">
+        <v>13644.0</v>
+      </c>
+      <c r="AB50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC50" s="11">
+        <v>13873.0</v>
+      </c>
     </row>
     <row r="51">
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="18"/>
-      <c r="AA51" s="18"/>
-      <c r="AB51" s="3"/>
+      <c r="A51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="6">
+        <v>5249.0</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="6">
+        <v>8359.0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>4296.0</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="6">
+        <v>3576.0</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R51" s="6">
+        <v>3825.0</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U51" s="6">
+        <v>2382.0</v>
+      </c>
+      <c r="V51" s="6">
+        <v>7166.0</v>
+      </c>
+      <c r="W51" s="6">
+        <v>5211.0</v>
+      </c>
+      <c r="X51" s="6">
+        <v>21170.0</v>
+      </c>
+      <c r="Y51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z51" s="6">
+        <v>33179.0</v>
+      </c>
+      <c r="AA51" s="6">
+        <v>27930.0</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC51" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
-      <c r="F52" s="17"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="18"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
+      <c r="A52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="10">
+        <v>9439.0</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" s="10">
+        <v>6358.0</v>
+      </c>
+      <c r="J52" s="10">
+        <v>10112.0</v>
+      </c>
+      <c r="K52" s="10">
+        <v>7170.0</v>
+      </c>
+      <c r="L52" s="10">
+        <v>8933.0</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O52" s="10">
+        <v>4201.0</v>
+      </c>
+      <c r="P52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>6289.0</v>
+      </c>
+      <c r="R52" s="10">
+        <v>3759.0</v>
+      </c>
+      <c r="S52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T52" s="10">
+        <v>6874.0</v>
+      </c>
+      <c r="U52" s="10">
+        <v>3177.0</v>
+      </c>
+      <c r="V52" s="10">
+        <v>4391.0</v>
+      </c>
+      <c r="W52" s="10">
+        <v>6068.0</v>
+      </c>
+      <c r="X52" s="10">
+        <v>25896.0</v>
+      </c>
+      <c r="Y52" s="10">
+        <v>28765.0</v>
+      </c>
+      <c r="Z52" s="10">
+        <v>32681.0</v>
+      </c>
+      <c r="AA52" s="10">
+        <v>24333.0</v>
+      </c>
+      <c r="AB52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC52" s="11">
+        <v>34278.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="6">
+        <v>19580.0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>12264.0</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="6">
+        <v>9976.0</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N53" s="6">
+        <v>72517.0</v>
+      </c>
+      <c r="O53" s="6">
+        <v>9258.0</v>
+      </c>
+      <c r="P53" s="6">
+        <v>23315.0</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R53" s="6">
+        <v>9105.0</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U53" s="6">
+        <v>5389.0</v>
+      </c>
+      <c r="V53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W53" s="6">
+        <v>9211.0</v>
+      </c>
+      <c r="X53" s="6">
+        <v>44041.0</v>
+      </c>
+      <c r="Y53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA53" s="6">
+        <v>33215.0</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC53" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="10">
+        <v>19265.0</v>
+      </c>
+      <c r="G54" s="10">
+        <v>65522.0</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54" s="10">
+        <v>14370.0</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" s="10">
+        <v>19609.0</v>
+      </c>
+      <c r="L54" s="10">
+        <v>28103.0</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O54" s="10">
+        <v>15002.0</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R54" s="10">
+        <v>9658.0</v>
+      </c>
+      <c r="S54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U54" s="10">
+        <v>6969.0</v>
+      </c>
+      <c r="V54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W54" s="10">
+        <v>17513.0</v>
+      </c>
+      <c r="X54" s="10">
+        <v>64532.0</v>
+      </c>
+      <c r="Y54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z54" s="10">
+        <v>95603.0</v>
+      </c>
+      <c r="AA54" s="10">
+        <v>59507.0</v>
+      </c>
+      <c r="AB54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC54" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="6">
+        <v>16979.0</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="6">
+        <v>33996.0</v>
+      </c>
+      <c r="I55" s="6">
+        <v>12262.0</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" s="6">
+        <v>16611.0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>143581.0</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O55" s="6">
+        <v>6959.0</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R55" s="6">
+        <v>5950.0</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U55" s="6">
+        <v>4251.0</v>
+      </c>
+      <c r="V55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W55" s="6">
+        <v>8475.0</v>
+      </c>
+      <c r="X55" s="6">
+        <v>56341.0</v>
+      </c>
+      <c r="Y55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z55" s="6">
+        <v>82321.0</v>
+      </c>
+      <c r="AA55" s="6">
+        <v>49756.0</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC55" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="10">
+        <v>4288.0</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" s="10">
+        <v>4680.0</v>
+      </c>
+      <c r="J56" s="10">
+        <v>5810.0</v>
+      </c>
+      <c r="K56" s="10">
+        <v>6637.0</v>
+      </c>
+      <c r="L56" s="10">
+        <v>5141.0</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O56" s="10">
+        <v>2507.0</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>4593.0</v>
+      </c>
+      <c r="R56" s="10">
+        <v>2940.0</v>
+      </c>
+      <c r="S56" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T56" s="10">
+        <v>4514.0</v>
+      </c>
+      <c r="U56" s="10">
+        <v>2232.0</v>
+      </c>
+      <c r="V56" s="10">
+        <v>5573.0</v>
+      </c>
+      <c r="W56" s="10">
+        <v>3953.0</v>
+      </c>
+      <c r="X56" s="10">
+        <v>19786.0</v>
+      </c>
+      <c r="Y56" s="10">
+        <v>26549.0</v>
+      </c>
+      <c r="Z56" s="10">
+        <v>27461.0</v>
+      </c>
+      <c r="AA56" s="10">
+        <v>19777.0</v>
+      </c>
+      <c r="AB56" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC56" s="11">
+        <v>29133.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="6">
+        <v>31155.0</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" s="6">
+        <v>50595.0</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N57" s="6">
+        <v>148036.0</v>
+      </c>
+      <c r="O57" s="6">
+        <v>29475.0</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R57" s="6">
+        <v>31224.0</v>
+      </c>
+      <c r="S57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T57" s="6">
+        <v>71873.0</v>
+      </c>
+      <c r="U57" s="6">
+        <v>28332.0</v>
+      </c>
+      <c r="V57" s="6">
+        <v>58710.0</v>
+      </c>
+      <c r="W57" s="6">
+        <v>35911.0</v>
+      </c>
+      <c r="X57" s="6">
+        <v>105004.0</v>
+      </c>
+      <c r="Y57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA57" s="6">
+        <v>109445.0</v>
+      </c>
+      <c r="AB57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC57" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="10">
+        <v>74739.0</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="10">
+        <v>40946.0</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K58" s="10">
+        <v>79687.0</v>
+      </c>
+      <c r="L58" s="10">
+        <v>48685.0</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O58" s="10">
+        <v>42363.0</v>
+      </c>
+      <c r="P58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R58" s="10">
+        <v>39466.0</v>
+      </c>
+      <c r="S58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U58" s="10">
+        <v>24213.0</v>
+      </c>
+      <c r="V58" s="10">
+        <v>75344.0</v>
+      </c>
+      <c r="W58" s="10">
+        <v>61645.0</v>
+      </c>
+      <c r="X58" s="10">
+        <v>103188.0</v>
+      </c>
+      <c r="Y58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z58" s="10">
+        <v>131221.0</v>
+      </c>
+      <c r="AA58" s="10">
+        <v>97265.0</v>
+      </c>
+      <c r="AB58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC58" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="6">
+        <v>32386.0</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" s="6">
+        <v>32225.0</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K59" s="6">
+        <v>44504.0</v>
+      </c>
+      <c r="L59" s="6">
+        <v>30769.0</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O59" s="6">
+        <v>25866.0</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>38371.0</v>
+      </c>
+      <c r="R59" s="6">
+        <v>25363.0</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U59" s="6">
+        <v>16106.0</v>
+      </c>
+      <c r="V59" s="6">
+        <v>38490.0</v>
+      </c>
+      <c r="W59" s="6">
+        <v>32039.0</v>
+      </c>
+      <c r="X59" s="6">
+        <v>90682.0</v>
+      </c>
+      <c r="Y59" s="6">
+        <v>114210.0</v>
+      </c>
+      <c r="Z59" s="6">
+        <v>134787.0</v>
+      </c>
+      <c r="AA59" s="6">
+        <v>93638.0</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC59" s="7">
+        <v>114054.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" s="10">
+        <v>17170.0</v>
+      </c>
+      <c r="J60" s="10">
+        <v>26501.0</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="10">
+        <v>9066.0</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N60" s="10">
+        <v>25720.0</v>
+      </c>
+      <c r="O60" s="10">
+        <v>7936.0</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R60" s="10">
+        <v>7816.0</v>
+      </c>
+      <c r="S60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U60" s="10">
+        <v>6276.0</v>
+      </c>
+      <c r="V60" s="10">
+        <v>16595.0</v>
+      </c>
+      <c r="W60" s="10">
+        <v>11573.0</v>
+      </c>
+      <c r="X60" s="10">
+        <v>38634.0</v>
+      </c>
+      <c r="Y60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA60" s="10">
+        <v>25614.0</v>
+      </c>
+      <c r="AB60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC60" s="11">
+        <v>74098.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="10">
+        <v>20572.0</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" s="19">
+        <v>18269.0</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" s="10">
+        <v>19983.0</v>
+      </c>
+      <c r="L61" s="10">
+        <v>20854.0</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O61" s="10">
+        <v>17546.0</v>
+      </c>
+      <c r="P61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R61" s="19">
+        <v>17814.0</v>
+      </c>
+      <c r="S61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U61" s="19">
+        <v>16112.0</v>
+      </c>
+      <c r="V61" s="10">
+        <v>23034.0</v>
+      </c>
+      <c r="W61" s="19">
+        <v>17733.0</v>
+      </c>
+      <c r="X61" s="19">
+        <v>49201.0</v>
+      </c>
+      <c r="Y61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z61" s="10">
+        <v>64411.0</v>
+      </c>
+      <c r="AA61" s="19">
+        <v>44603.0</v>
+      </c>
+      <c r="AB61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC61" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="6">
+        <v>7375.0</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I62" s="9">
+        <v>7526.0</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K62" s="6">
+        <v>8542.0</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O62" s="6">
+        <v>5586.0</v>
+      </c>
+      <c r="P62" s="6">
+        <v>11616.0</v>
+      </c>
+      <c r="Q62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R62" s="9">
+        <v>5472.0</v>
+      </c>
+      <c r="S62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U62" s="9">
+        <v>4865.0</v>
+      </c>
+      <c r="V62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W62" s="9">
+        <v>8485.0</v>
+      </c>
+      <c r="X62" s="9">
+        <v>31734.0</v>
+      </c>
+      <c r="Y62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z62" s="6">
+        <v>34357.0</v>
+      </c>
+      <c r="AA62" s="9">
+        <v>33368.0</v>
+      </c>
+      <c r="AB62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC62" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F63" s="10">
+        <v>85972.0</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" s="19">
+        <v>63076.0</v>
+      </c>
+      <c r="J63" s="10">
+        <v>120225.0</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="10">
+        <v>71404.0</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N63" s="10">
+        <v>165920.0</v>
+      </c>
+      <c r="O63" s="10">
+        <v>53832.0</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R63" s="19">
+        <v>55215.0</v>
+      </c>
+      <c r="S63" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T63" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U63" s="19">
+        <v>51376.0</v>
+      </c>
+      <c r="V63" s="10">
+        <v>56864.0</v>
+      </c>
+      <c r="W63" s="19">
+        <v>56841.0</v>
+      </c>
+      <c r="X63" s="19">
+        <v>129623.0</v>
+      </c>
+      <c r="Y63" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z63" s="10">
+        <v>141867.0</v>
+      </c>
+      <c r="AA63" s="19">
+        <v>69486.0</v>
+      </c>
+      <c r="AB63" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC63" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="6">
+        <v>25508.0</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I64" s="9">
+        <v>29651.0</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K64" s="6">
+        <v>60915.0</v>
+      </c>
+      <c r="L64" s="6">
+        <v>37618.0</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O64" s="6">
+        <v>24366.0</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R64" s="9">
+        <v>23270.0</v>
+      </c>
+      <c r="S64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U64" s="9">
+        <v>20059.0</v>
+      </c>
+      <c r="V64" s="6">
+        <v>43460.0</v>
+      </c>
+      <c r="W64" s="9">
+        <v>33287.0</v>
+      </c>
+      <c r="X64" s="9">
+        <v>78322.0</v>
+      </c>
+      <c r="Y64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z64" s="6">
+        <v>92150.0</v>
+      </c>
+      <c r="AA64" s="9">
+        <v>69991.0</v>
+      </c>
+      <c r="AB64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC64" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="10">
+        <v>11603.0</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" s="19">
+        <v>13766.0</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R65" s="19">
+        <v>7983.0</v>
+      </c>
+      <c r="S65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U65" s="19">
+        <v>7201.0</v>
+      </c>
+      <c r="V65" s="10">
+        <v>19874.0</v>
+      </c>
+      <c r="W65" s="19">
+        <v>9240.0</v>
+      </c>
+      <c r="X65" s="19">
+        <v>47320.0</v>
+      </c>
+      <c r="Y65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z65" s="10">
+        <v>64701.0</v>
+      </c>
+      <c r="AA65" s="19">
+        <v>51428.0</v>
+      </c>
+      <c r="AB65" s="10">
+        <v>141114.0</v>
+      </c>
+      <c r="AC65" s="11">
+        <v>88375.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="6">
+        <v>14654.0</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="6">
+        <v>45700.0</v>
+      </c>
+      <c r="I66" s="9">
+        <v>13594.0</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L66" s="6">
+        <v>9651.0</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O66" s="6">
+        <v>8708.0</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>16627.0</v>
+      </c>
+      <c r="R66" s="9">
+        <v>8521.0</v>
+      </c>
+      <c r="S66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U66" s="9">
+        <v>7384.0</v>
+      </c>
+      <c r="V66" s="6">
+        <v>22427.0</v>
+      </c>
+      <c r="W66" s="9">
+        <v>13668.0</v>
+      </c>
+      <c r="X66" s="9">
+        <v>49263.0</v>
+      </c>
+      <c r="Y66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA66" s="9">
+        <v>48824.0</v>
+      </c>
+      <c r="AB66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC66" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="10">
+        <v>104055.0</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" s="19">
+        <v>97671.0</v>
+      </c>
+      <c r="J67" s="10">
+        <v>112071.0</v>
+      </c>
+      <c r="K67" s="10">
+        <v>123639.0</v>
+      </c>
+      <c r="L67" s="10">
+        <v>107774.0</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O67" s="10">
+        <v>84624.0</v>
+      </c>
+      <c r="P67" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q67" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R67" s="19">
+        <v>75459.0</v>
+      </c>
+      <c r="S67" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T67" s="10">
+        <v>88946.0</v>
+      </c>
+      <c r="U67" s="19">
+        <v>69264.0</v>
+      </c>
+      <c r="V67" s="10">
+        <v>75731.0</v>
+      </c>
+      <c r="W67" s="19">
+        <v>81455.0</v>
+      </c>
+      <c r="X67" s="19">
+        <v>128877.0</v>
+      </c>
+      <c r="Y67" s="10">
+        <v>158374.0</v>
+      </c>
+      <c r="Z67" s="10">
+        <v>155420.0</v>
+      </c>
+      <c r="AA67" s="19">
+        <v>111293.0</v>
+      </c>
+      <c r="AB67" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC67" s="11">
+        <v>159591.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="6">
+        <v>47987.0</v>
+      </c>
+      <c r="G68" s="6">
+        <v>119398.0</v>
+      </c>
+      <c r="H68" s="6">
+        <v>134544.0</v>
+      </c>
+      <c r="I68" s="9">
+        <v>40765.0</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L68" s="6">
+        <v>73184.0</v>
+      </c>
+      <c r="M68" s="6">
+        <v>147955.0</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O68" s="6">
+        <v>45574.0</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R68" s="9">
+        <v>37406.0</v>
+      </c>
+      <c r="S68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U68" s="9">
+        <v>35212.0</v>
+      </c>
+      <c r="V68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W68" s="9">
+        <v>39337.0</v>
+      </c>
+      <c r="X68" s="9">
+        <v>90588.0</v>
+      </c>
+      <c r="Y68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA68" s="9">
+        <v>82162.0</v>
+      </c>
+      <c r="AB68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC68" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="10">
+        <v>8334.0</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" s="10">
+        <v>8647.0</v>
+      </c>
+      <c r="I69" s="19">
+        <v>6963.0</v>
+      </c>
+      <c r="J69" s="10">
+        <v>9948.0</v>
+      </c>
+      <c r="K69" s="10">
+        <v>8025.0</v>
+      </c>
+      <c r="L69" s="10">
+        <v>7559.0</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N69" s="10">
+        <v>9044.0</v>
+      </c>
+      <c r="O69" s="10">
+        <v>4798.0</v>
+      </c>
+      <c r="P69" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q69" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R69" s="19">
+        <v>4754.0</v>
+      </c>
+      <c r="S69" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T69" s="10">
+        <v>7524.0</v>
+      </c>
+      <c r="U69" s="19">
+        <v>3836.0</v>
+      </c>
+      <c r="V69" s="10">
+        <v>8505.0</v>
+      </c>
+      <c r="W69" s="19">
+        <v>6100.0</v>
+      </c>
+      <c r="X69" s="19">
+        <v>25397.0</v>
+      </c>
+      <c r="Y69" s="10">
+        <v>25790.0</v>
+      </c>
+      <c r="Z69" s="10">
+        <v>30577.0</v>
+      </c>
+      <c r="AA69" s="19">
+        <v>29715.0</v>
+      </c>
+      <c r="AB69" s="10">
+        <v>30190.0</v>
+      </c>
+      <c r="AC69" s="11">
+        <v>31510.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" s="9">
+        <v>8938.0</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K70" s="6">
+        <v>9841.0</v>
+      </c>
+      <c r="L70" s="6">
+        <v>12291.0</v>
+      </c>
+      <c r="M70" s="6">
+        <v>33606.0</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O70" s="6">
+        <v>6822.0</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R70" s="9">
+        <v>5927.0</v>
+      </c>
+      <c r="S70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U70" s="9">
+        <v>5326.0</v>
+      </c>
+      <c r="V70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W70" s="9">
+        <v>9133.0</v>
+      </c>
+      <c r="X70" s="9">
+        <v>36061.0</v>
+      </c>
+      <c r="Y70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z70" s="6">
+        <v>53914.0</v>
+      </c>
+      <c r="AA70" s="9">
+        <v>37075.0</v>
+      </c>
+      <c r="AB70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC70" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" s="6">
+        <v>8884.0</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" s="6">
+        <v>7911.0</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K71" s="6">
+        <v>8996.0</v>
+      </c>
+      <c r="L71" s="6">
+        <v>9332.0</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O71" s="6">
+        <v>6211.0</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R71" s="6">
+        <v>6406.0</v>
+      </c>
+      <c r="S71" s="6">
+        <v>9953.0</v>
+      </c>
+      <c r="T71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U71" s="6">
+        <v>4890.0</v>
+      </c>
+      <c r="V71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W71" s="6">
+        <v>8444.0</v>
+      </c>
+      <c r="X71" s="6">
+        <v>32960.0</v>
+      </c>
+      <c r="Y71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z71" s="6">
+        <v>48484.0</v>
+      </c>
+      <c r="AA71" s="6">
+        <v>31273.0</v>
+      </c>
+      <c r="AB71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC71" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72" s="10">
+        <v>13230.0</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" s="10">
+        <v>13985.0</v>
+      </c>
+      <c r="I72" s="10">
+        <v>14608.0</v>
+      </c>
+      <c r="J72" s="10">
+        <v>18347.0</v>
+      </c>
+      <c r="K72" s="10">
+        <v>15680.0</v>
+      </c>
+      <c r="L72" s="10">
+        <v>15639.0</v>
+      </c>
+      <c r="M72" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N72" s="10">
+        <v>43425.0</v>
+      </c>
+      <c r="O72" s="10">
+        <v>9542.0</v>
+      </c>
+      <c r="P72" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q72" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R72" s="10">
+        <v>8784.0</v>
+      </c>
+      <c r="S72" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T72" s="10">
+        <v>14009.0</v>
+      </c>
+      <c r="U72" s="10">
+        <v>7634.0</v>
+      </c>
+      <c r="V72" s="10">
+        <v>16361.0</v>
+      </c>
+      <c r="W72" s="10">
+        <v>13615.0</v>
+      </c>
+      <c r="X72" s="10">
+        <v>50740.0</v>
+      </c>
+      <c r="Y72" s="10">
+        <v>58074.0</v>
+      </c>
+      <c r="Z72" s="10">
+        <v>61396.0</v>
+      </c>
+      <c r="AA72" s="10">
+        <v>48831.0</v>
+      </c>
+      <c r="AB72" s="10">
+        <v>58763.0</v>
+      </c>
+      <c r="AC72" s="11">
+        <v>51184.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="6">
+        <v>22396.0</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I73" s="6">
+        <v>27085.0</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K73" s="6">
+        <v>36139.0</v>
+      </c>
+      <c r="L73" s="6">
+        <v>50167.0</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O73" s="6">
+        <v>22127.0</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R73" s="6">
+        <v>25526.0</v>
+      </c>
+      <c r="S73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T73" s="6">
+        <v>30314.0</v>
+      </c>
+      <c r="U73" s="6">
+        <v>21181.0</v>
+      </c>
+      <c r="V73" s="6">
+        <v>29298.0</v>
+      </c>
+      <c r="W73" s="6">
+        <v>28959.0</v>
+      </c>
+      <c r="X73" s="6">
+        <v>72661.0</v>
+      </c>
+      <c r="Y73" s="6">
+        <v>103174.0</v>
+      </c>
+      <c r="Z73" s="6">
+        <v>75273.0</v>
+      </c>
+      <c r="AA73" s="6">
+        <v>74955.0</v>
+      </c>
+      <c r="AB73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC73" s="7">
+        <v>76281.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74" s="10">
+        <v>30892.0</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I74" s="10">
+        <v>33893.0</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L74" s="10">
+        <v>45727.0</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N74" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O74" s="10">
+        <v>25824.0</v>
+      </c>
+      <c r="P74" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q74" s="10">
+        <v>29182.0</v>
+      </c>
+      <c r="R74" s="10">
+        <v>32682.0</v>
+      </c>
+      <c r="S74" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T74" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U74" s="10">
+        <v>22563.0</v>
+      </c>
+      <c r="V74" s="10">
+        <v>48616.0</v>
+      </c>
+      <c r="W74" s="10">
+        <v>27216.0</v>
+      </c>
+      <c r="X74" s="10">
+        <v>97490.0</v>
+      </c>
+      <c r="Y74" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z74" s="10">
+        <v>124194.0</v>
+      </c>
+      <c r="AA74" s="10">
+        <v>67912.0</v>
+      </c>
+      <c r="AB74" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC74" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F75" s="6">
+        <v>26689.0</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" s="6">
+        <v>47178.0</v>
+      </c>
+      <c r="I75" s="6">
+        <v>28783.0</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K75" s="6">
+        <v>36728.0</v>
+      </c>
+      <c r="L75" s="6">
+        <v>27768.0</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O75" s="6">
+        <v>21810.0</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R75" s="6">
+        <v>20835.0</v>
+      </c>
+      <c r="S75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U75" s="6">
+        <v>16037.0</v>
+      </c>
+      <c r="V75" s="6">
+        <v>45612.0</v>
+      </c>
+      <c r="W75" s="6">
+        <v>33339.0</v>
+      </c>
+      <c r="X75" s="6">
+        <v>105809.0</v>
+      </c>
+      <c r="Y75" s="6">
+        <v>163220.0</v>
+      </c>
+      <c r="Z75" s="6">
+        <v>109735.0</v>
+      </c>
+      <c r="AA75" s="6">
+        <v>89826.0</v>
+      </c>
+      <c r="AB75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC75" s="7">
+        <v>134534.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F76" s="10">
+        <v>12799.0</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I76" s="10">
+        <v>11694.0</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L76" s="10">
+        <v>14436.0</v>
+      </c>
+      <c r="M76" s="10">
+        <v>59967.0</v>
+      </c>
+      <c r="N76" s="10">
+        <v>31185.0</v>
+      </c>
+      <c r="O76" s="10">
+        <v>8224.0</v>
+      </c>
+      <c r="P76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q76" s="10">
+        <v>12099.0</v>
+      </c>
+      <c r="R76" s="10">
+        <v>7482.0</v>
+      </c>
+      <c r="S76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U76" s="10">
+        <v>6578.0</v>
+      </c>
+      <c r="V76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W76" s="10">
+        <v>9165.0</v>
+      </c>
+      <c r="X76" s="10">
+        <v>47027.0</v>
+      </c>
+      <c r="Y76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA76" s="10">
+        <v>46172.0</v>
+      </c>
+      <c r="AB76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC76" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="6">
+        <v>11499.0</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77" s="6">
+        <v>8763.0</v>
+      </c>
+      <c r="J77" s="6">
+        <v>11816.0</v>
+      </c>
+      <c r="K77" s="6">
+        <v>10409.0</v>
+      </c>
+      <c r="L77" s="6">
+        <v>11724.0</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O77" s="6">
+        <v>6302.0</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R77" s="6">
+        <v>6694.0</v>
+      </c>
+      <c r="S77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T77" s="6">
+        <v>8671.0</v>
+      </c>
+      <c r="U77" s="6">
+        <v>5379.0</v>
+      </c>
+      <c r="V77" s="6">
+        <v>10969.0</v>
+      </c>
+      <c r="W77" s="6">
+        <v>8465.0</v>
+      </c>
+      <c r="X77" s="6">
+        <v>35965.0</v>
+      </c>
+      <c r="Y77" s="6">
+        <v>54824.0</v>
+      </c>
+      <c r="Z77" s="6">
+        <v>39224.0</v>
+      </c>
+      <c r="AA77" s="6">
+        <v>39233.0</v>
+      </c>
+      <c r="AB77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC77" s="7">
+        <v>39322.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I78" s="10">
+        <v>77622.0</v>
+      </c>
+      <c r="J78" s="10">
+        <v>105359.0</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L78" s="10">
+        <v>48690.0</v>
+      </c>
+      <c r="M78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O78" s="10">
+        <v>51289.0</v>
+      </c>
+      <c r="P78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q78" s="10">
+        <v>94405.0</v>
+      </c>
+      <c r="R78" s="10">
+        <v>46753.0</v>
+      </c>
+      <c r="S78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U78" s="10">
+        <v>44932.0</v>
+      </c>
+      <c r="V78" s="10">
+        <v>90729.0</v>
+      </c>
+      <c r="W78" s="10">
+        <v>78368.0</v>
+      </c>
+      <c r="X78" s="10">
+        <v>130642.0</v>
+      </c>
+      <c r="Y78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA78" s="10">
+        <v>122557.0</v>
+      </c>
+      <c r="AB78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC78" s="11">
+        <v>210068.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F79" s="6">
+        <v>38989.0</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I79" s="6">
+        <v>56858.0</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K79" s="6">
+        <v>72923.0</v>
+      </c>
+      <c r="L79" s="6">
+        <v>58052.0</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O79" s="6">
+        <v>45961.0</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R79" s="6">
+        <v>41985.0</v>
+      </c>
+      <c r="S79" s="6">
+        <v>77926.0</v>
+      </c>
+      <c r="T79" s="6">
+        <v>79586.0</v>
+      </c>
+      <c r="U79" s="6">
+        <v>37685.0</v>
+      </c>
+      <c r="V79" s="6">
+        <v>70478.0</v>
+      </c>
+      <c r="W79" s="6">
+        <v>64669.0</v>
+      </c>
+      <c r="X79" s="6">
+        <v>123582.0</v>
+      </c>
+      <c r="Y79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z79" s="6">
+        <v>171313.0</v>
+      </c>
+      <c r="AA79" s="6">
+        <v>140324.0</v>
+      </c>
+      <c r="AB79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC79" s="7">
+        <v>180024.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" s="10">
+        <v>12324.0</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" s="10">
+        <v>16945.0</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K80" s="10">
+        <v>19619.0</v>
+      </c>
+      <c r="L80" s="10">
+        <v>26218.0</v>
+      </c>
+      <c r="M80" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N80" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O80" s="10">
+        <v>11498.0</v>
+      </c>
+      <c r="P80" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q80" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R80" s="10">
+        <v>14634.0</v>
+      </c>
+      <c r="S80" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T80" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U80" s="10">
+        <v>9227.0</v>
+      </c>
+      <c r="V80" s="10">
+        <v>28094.0</v>
+      </c>
+      <c r="W80" s="10">
+        <v>14527.0</v>
+      </c>
+      <c r="X80" s="10">
+        <v>51905.0</v>
+      </c>
+      <c r="Y80" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z80" s="10">
+        <v>77708.0</v>
+      </c>
+      <c r="AA80" s="10">
+        <v>39796.0</v>
+      </c>
+      <c r="AB80" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC80" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" s="6">
+        <v>9089.0</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I81" s="6">
+        <v>10447.0</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K81" s="6">
+        <v>13175.0</v>
+      </c>
+      <c r="L81" s="6">
+        <v>15413.0</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O81" s="6">
+        <v>6082.0</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R81" s="6">
+        <v>7760.0</v>
+      </c>
+      <c r="S81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U81" s="6">
+        <v>5954.0</v>
+      </c>
+      <c r="V81" s="6">
+        <v>13146.0</v>
+      </c>
+      <c r="W81" s="6">
+        <v>11149.0</v>
+      </c>
+      <c r="X81" s="6">
+        <v>36282.0</v>
+      </c>
+      <c r="Y81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z81" s="6">
+        <v>40587.0</v>
+      </c>
+      <c r="AA81" s="6">
+        <v>38720.0</v>
+      </c>
+      <c r="AB81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC81" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="10">
+        <v>78749.0</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" s="10">
+        <v>112180.0</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K82" s="10">
+        <v>117889.0</v>
+      </c>
+      <c r="L82" s="10">
+        <v>99900.0</v>
+      </c>
+      <c r="M82" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N82" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O82" s="10">
+        <v>80361.0</v>
+      </c>
+      <c r="P82" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q82" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R82" s="10">
+        <v>86551.0</v>
+      </c>
+      <c r="S82" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T82" s="10">
+        <v>121905.0</v>
+      </c>
+      <c r="U82" s="10">
+        <v>77581.0</v>
+      </c>
+      <c r="V82" s="10">
+        <v>83558.0</v>
+      </c>
+      <c r="W82" s="10">
+        <v>97102.0</v>
+      </c>
+      <c r="X82" s="10">
+        <v>148782.0</v>
+      </c>
+      <c r="Y82" s="10">
+        <v>156749.0</v>
+      </c>
+      <c r="Z82" s="10">
+        <v>163686.0</v>
+      </c>
+      <c r="AA82" s="10">
+        <v>137232.0</v>
+      </c>
+      <c r="AB82" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC82" s="11">
+        <v>140347.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" s="6">
+        <v>9822.0</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" s="6">
+        <v>10731.0</v>
+      </c>
+      <c r="I83" s="6">
+        <v>9094.0</v>
+      </c>
+      <c r="J83" s="6">
+        <v>10522.0</v>
+      </c>
+      <c r="K83" s="6">
+        <v>9501.0</v>
+      </c>
+      <c r="L83" s="6">
+        <v>11837.0</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N83" s="6">
+        <v>18532.0</v>
+      </c>
+      <c r="O83" s="6">
+        <v>6117.0</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q83" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R83" s="6">
+        <v>6230.0</v>
+      </c>
+      <c r="S83" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T83" s="6">
+        <v>9246.0</v>
+      </c>
+      <c r="U83" s="6">
+        <v>4973.0</v>
+      </c>
+      <c r="V83" s="6">
+        <v>10351.0</v>
+      </c>
+      <c r="W83" s="6">
+        <v>7360.0</v>
+      </c>
+      <c r="X83" s="6">
+        <v>29343.0</v>
+      </c>
+      <c r="Y83" s="6">
+        <v>36632.0</v>
+      </c>
+      <c r="Z83" s="6">
+        <v>37377.0</v>
+      </c>
+      <c r="AA83" s="6">
+        <v>32304.0</v>
+      </c>
+      <c r="AB83" s="6">
+        <v>42171.0</v>
+      </c>
+      <c r="AC83" s="7">
+        <v>37844.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F84" s="10">
+        <v>12525.0</v>
+      </c>
+      <c r="G84" s="10">
+        <v>29425.0</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I84" s="10">
+        <v>10375.0</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K84" s="10">
+        <v>14428.0</v>
+      </c>
+      <c r="L84" s="10">
+        <v>16061.0</v>
+      </c>
+      <c r="M84" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N84" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O84" s="10">
+        <v>7928.0</v>
+      </c>
+      <c r="P84" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q84" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R84" s="10">
+        <v>9194.0</v>
+      </c>
+      <c r="S84" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T84" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U84" s="10">
+        <v>7683.0</v>
+      </c>
+      <c r="V84" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W84" s="10">
+        <v>11850.0</v>
+      </c>
+      <c r="X84" s="10">
+        <v>42473.0</v>
+      </c>
+      <c r="Y84" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z84" s="10">
+        <v>57777.0</v>
+      </c>
+      <c r="AA84" s="10">
+        <v>35922.0</v>
+      </c>
+      <c r="AB84" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC84" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="6">
+        <v>18144.0</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I85" s="6">
+        <v>15352.0</v>
+      </c>
+      <c r="J85" s="6">
+        <v>21807.0</v>
+      </c>
+      <c r="K85" s="6">
+        <v>17890.0</v>
+      </c>
+      <c r="L85" s="6">
+        <v>25958.0</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O85" s="6">
+        <v>10805.0</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R85" s="6">
+        <v>10842.0</v>
+      </c>
+      <c r="S85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T85" s="6">
+        <v>14117.0</v>
+      </c>
+      <c r="U85" s="6">
+        <v>9594.0</v>
+      </c>
+      <c r="V85" s="6">
+        <v>18942.0</v>
+      </c>
+      <c r="W85" s="6">
+        <v>13656.0</v>
+      </c>
+      <c r="X85" s="6">
+        <v>61065.0</v>
+      </c>
+      <c r="Y85" s="6">
+        <v>79054.0</v>
+      </c>
+      <c r="Z85" s="6">
+        <v>72745.0</v>
+      </c>
+      <c r="AA85" s="6">
+        <v>59350.0</v>
+      </c>
+      <c r="AB85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC85" s="7">
+        <v>69964.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" s="10">
+        <v>58018.0</v>
+      </c>
+      <c r="I86" s="10">
+        <v>30758.0</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L86" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M86" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N86" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O86" s="10">
+        <v>23639.0</v>
+      </c>
+      <c r="P86" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q86" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R86" s="10">
+        <v>25621.0</v>
+      </c>
+      <c r="S86" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T86" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U86" s="10">
+        <v>21604.0</v>
+      </c>
+      <c r="V86" s="10">
+        <v>37247.0</v>
+      </c>
+      <c r="W86" s="10">
+        <v>25758.0</v>
+      </c>
+      <c r="X86" s="10">
+        <v>82280.0</v>
+      </c>
+      <c r="Y86" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z86" s="10">
+        <v>85347.0</v>
+      </c>
+      <c r="AA86" s="10">
+        <v>78070.0</v>
+      </c>
+      <c r="AB86" s="10">
+        <v>113664.0</v>
+      </c>
+      <c r="AC86" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F87" s="6">
+        <v>26214.0</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I87" s="6">
+        <v>41391.0</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L87" s="6">
+        <v>43167.0</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O87" s="6">
+        <v>30113.0</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q87" s="6">
+        <v>48230.0</v>
+      </c>
+      <c r="R87" s="6">
+        <v>29680.0</v>
+      </c>
+      <c r="S87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U87" s="6">
+        <v>25086.0</v>
+      </c>
+      <c r="V87" s="6">
+        <v>54705.0</v>
+      </c>
+      <c r="W87" s="6">
+        <v>40619.0</v>
+      </c>
+      <c r="X87" s="6">
+        <v>120169.0</v>
+      </c>
+      <c r="Y87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA87" s="6">
+        <v>132710.0</v>
+      </c>
+      <c r="AB87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC87" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F88" s="10">
+        <v>29739.0</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I88" s="10">
+        <v>30356.0</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L88" s="10">
+        <v>37898.0</v>
+      </c>
+      <c r="M88" s="10">
+        <v>153865.0</v>
+      </c>
+      <c r="N88" s="10">
+        <v>48248.0</v>
+      </c>
+      <c r="O88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q88" s="10">
+        <v>38773.0</v>
+      </c>
+      <c r="R88" s="10">
+        <v>25285.0</v>
+      </c>
+      <c r="S88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U88" s="10">
+        <v>20182.0</v>
+      </c>
+      <c r="V88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W88" s="10">
+        <v>28975.0</v>
+      </c>
+      <c r="X88" s="10">
+        <v>99509.0</v>
+      </c>
+      <c r="Y88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA88" s="10">
+        <v>122389.0</v>
+      </c>
+      <c r="AB88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC88" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89" s="6">
+        <v>24727.0</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I89" s="6">
+        <v>26227.0</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L89" s="6">
+        <v>43104.0</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N89" s="6">
+        <v>132441.0</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P89" s="6">
+        <v>39112.0</v>
+      </c>
+      <c r="Q89" s="6">
+        <v>30476.0</v>
+      </c>
+      <c r="R89" s="6">
+        <v>26038.0</v>
+      </c>
+      <c r="S89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U89" s="6">
+        <v>19210.0</v>
+      </c>
+      <c r="V89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W89" s="6">
+        <v>24631.0</v>
+      </c>
+      <c r="X89" s="6">
+        <v>76668.0</v>
+      </c>
+      <c r="Y89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA89" s="6">
+        <v>81500.0</v>
+      </c>
+      <c r="AB89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC89" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F90" s="10">
+        <v>14573.0</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I90" s="10">
+        <v>15637.0</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K90" s="10">
+        <v>18427.0</v>
+      </c>
+      <c r="L90" s="10">
+        <v>16073.0</v>
+      </c>
+      <c r="M90" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N90" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O90" s="10">
+        <v>11393.0</v>
+      </c>
+      <c r="P90" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q90" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R90" s="10">
+        <v>11037.0</v>
+      </c>
+      <c r="S90" s="10">
+        <v>27895.0</v>
+      </c>
+      <c r="T90" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U90" s="10">
+        <v>9271.0</v>
+      </c>
+      <c r="V90" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W90" s="10">
+        <v>13756.0</v>
+      </c>
+      <c r="X90" s="10">
+        <v>64261.0</v>
+      </c>
+      <c r="Y90" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z90" s="10">
+        <v>70203.0</v>
+      </c>
+      <c r="AA90" s="10">
+        <v>49181.0</v>
+      </c>
+      <c r="AB90" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC90" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="6">
+        <v>12586.0</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I91" s="6">
+        <v>10929.0</v>
+      </c>
+      <c r="J91" s="6">
+        <v>17210.0</v>
+      </c>
+      <c r="K91" s="6">
+        <v>12026.0</v>
+      </c>
+      <c r="L91" s="6">
+        <v>15730.0</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O91" s="6">
+        <v>7558.0</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R91" s="6">
+        <v>7979.0</v>
+      </c>
+      <c r="S91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T91" s="6">
+        <v>11334.0</v>
+      </c>
+      <c r="U91" s="6">
+        <v>7209.0</v>
+      </c>
+      <c r="V91" s="6">
+        <v>11113.0</v>
+      </c>
+      <c r="W91" s="6">
+        <v>10877.0</v>
+      </c>
+      <c r="X91" s="6">
+        <v>46319.0</v>
+      </c>
+      <c r="Y91" s="6">
+        <v>59957.0</v>
+      </c>
+      <c r="Z91" s="6">
+        <v>65179.0</v>
+      </c>
+      <c r="AA91" s="6">
+        <v>42889.0</v>
+      </c>
+      <c r="AB91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC91" s="7">
+        <v>48585.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" s="10">
+        <v>57321.0</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" s="10">
+        <v>115460.0</v>
+      </c>
+      <c r="I92" s="10">
+        <v>72746.0</v>
+      </c>
+      <c r="J92" s="10">
+        <v>103002.0</v>
+      </c>
+      <c r="K92" s="10">
+        <v>89030.0</v>
+      </c>
+      <c r="L92" s="10">
+        <v>74475.0</v>
+      </c>
+      <c r="M92" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N92" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O92" s="10">
+        <v>57794.0</v>
+      </c>
+      <c r="P92" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q92" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R92" s="10">
+        <v>57579.0</v>
+      </c>
+      <c r="S92" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T92" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U92" s="10">
+        <v>50421.0</v>
+      </c>
+      <c r="V92" s="10">
+        <v>74639.0</v>
+      </c>
+      <c r="W92" s="10">
+        <v>68131.0</v>
+      </c>
+      <c r="X92" s="10">
+        <v>146999.0</v>
+      </c>
+      <c r="Y92" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z92" s="10">
+        <v>168250.0</v>
+      </c>
+      <c r="AA92" s="10">
+        <v>170488.0</v>
+      </c>
+      <c r="AB92" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC92" s="11">
+        <v>235754.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F93" s="6">
+        <v>22708.0</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I93" s="6">
+        <v>19489.0</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K93" s="6">
+        <v>20970.0</v>
+      </c>
+      <c r="L93" s="6">
+        <v>24954.0</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O93" s="6">
+        <v>13572.0</v>
+      </c>
+      <c r="P93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R93" s="6">
+        <v>13559.0</v>
+      </c>
+      <c r="S93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U93" s="6">
+        <v>12985.0</v>
+      </c>
+      <c r="V93" s="6">
+        <v>44002.0</v>
+      </c>
+      <c r="W93" s="6">
+        <v>17403.0</v>
+      </c>
+      <c r="X93" s="6">
+        <v>65641.0</v>
+      </c>
+      <c r="Y93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z93" s="6">
+        <v>95653.0</v>
+      </c>
+      <c r="AA93" s="6">
+        <v>64521.0</v>
+      </c>
+      <c r="AB93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC93" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F94" s="10">
+        <v>6508.0</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" s="10">
+        <v>7479.0</v>
+      </c>
+      <c r="I94" s="10">
+        <v>5345.0</v>
+      </c>
+      <c r="J94" s="10">
+        <v>10297.0</v>
+      </c>
+      <c r="K94" s="10">
+        <v>7012.0</v>
+      </c>
+      <c r="L94" s="10">
+        <v>8086.0</v>
+      </c>
+      <c r="M94" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N94" s="10">
+        <v>11584.0</v>
+      </c>
+      <c r="O94" s="10">
+        <v>2860.0</v>
+      </c>
+      <c r="P94" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q94" s="10">
+        <v>5468.0</v>
+      </c>
+      <c r="R94" s="10">
+        <v>2953.0</v>
+      </c>
+      <c r="S94" s="10">
+        <v>9398.0</v>
+      </c>
+      <c r="T94" s="10">
+        <v>5470.0</v>
+      </c>
+      <c r="U94" s="10">
+        <v>1798.0</v>
+      </c>
+      <c r="V94" s="10">
+        <v>9074.0</v>
+      </c>
+      <c r="W94" s="10">
+        <v>5441.0</v>
+      </c>
+      <c r="X94" s="10">
+        <v>27512.0</v>
+      </c>
+      <c r="Y94" s="10">
+        <v>30385.0</v>
+      </c>
+      <c r="Z94" s="10">
+        <v>48716.0</v>
+      </c>
+      <c r="AA94" s="10">
+        <v>36815.0</v>
+      </c>
+      <c r="AB94" s="10">
+        <v>41216.0</v>
+      </c>
+      <c r="AC94" s="11">
+        <v>47405.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F95" s="6">
+        <v>196.0</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I95" s="6">
+        <v>149.0</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O95" s="6">
+        <v>99.0</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R95" s="6">
+        <v>114.0</v>
+      </c>
+      <c r="S95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U95" s="6">
+        <v>60.0</v>
+      </c>
+      <c r="V95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W95" s="6">
+        <v>429.0</v>
+      </c>
+      <c r="X95" s="6">
+        <v>431.0</v>
+      </c>
+      <c r="Y95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC95" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F96" s="10">
+        <v>8196.0</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" s="10">
+        <v>15093.0</v>
+      </c>
+      <c r="I96" s="10">
+        <v>7977.0</v>
+      </c>
+      <c r="J96" s="10">
+        <v>16260.0</v>
+      </c>
+      <c r="K96" s="10">
+        <v>10736.0</v>
+      </c>
+      <c r="L96" s="10">
+        <v>14098.0</v>
+      </c>
+      <c r="M96" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N96" s="10">
+        <v>17421.0</v>
+      </c>
+      <c r="O96" s="10">
+        <v>4058.0</v>
+      </c>
+      <c r="P96" s="10">
+        <v>13633.0</v>
+      </c>
+      <c r="Q96" s="10">
+        <v>9371.0</v>
+      </c>
+      <c r="R96" s="10">
+        <v>4575.0</v>
+      </c>
+      <c r="S96" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T96" s="10">
+        <v>9359.0</v>
+      </c>
+      <c r="U96" s="10">
+        <v>2966.0</v>
+      </c>
+      <c r="V96" s="10">
+        <v>11179.0</v>
+      </c>
+      <c r="W96" s="10">
+        <v>8504.0</v>
+      </c>
+      <c r="X96" s="10">
+        <v>38256.0</v>
+      </c>
+      <c r="Y96" s="10">
+        <v>43323.0</v>
+      </c>
+      <c r="Z96" s="10">
+        <v>65630.0</v>
+      </c>
+      <c r="AA96" s="10">
+        <v>44375.0</v>
+      </c>
+      <c r="AB96" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC96" s="11">
+        <v>52279.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" s="6">
+        <v>16539.0</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" s="6">
+        <v>34616.0</v>
+      </c>
+      <c r="I97" s="6">
+        <v>12559.0</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L97" s="6">
+        <v>14567.0</v>
+      </c>
+      <c r="M97" s="6">
+        <v>106119.0</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O97" s="6">
+        <v>5687.0</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R97" s="6">
+        <v>7690.0</v>
+      </c>
+      <c r="S97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U97" s="6">
+        <v>4315.0</v>
+      </c>
+      <c r="V97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W97" s="6">
+        <v>10925.0</v>
+      </c>
+      <c r="X97" s="6">
+        <v>58198.0</v>
+      </c>
+      <c r="Y97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z97" s="6">
+        <v>75243.0</v>
+      </c>
+      <c r="AA97" s="6">
+        <v>40570.0</v>
+      </c>
+      <c r="AB97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC97" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F98" s="10">
+        <v>30879.0</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I98" s="10">
+        <v>24548.0</v>
+      </c>
+      <c r="J98" s="10">
+        <v>52586.0</v>
+      </c>
+      <c r="K98" s="10">
+        <v>58474.0</v>
+      </c>
+      <c r="L98" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M98" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N98" s="10">
+        <v>45324.0</v>
+      </c>
+      <c r="O98" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P98" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q98" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R98" s="10">
+        <v>16641.0</v>
+      </c>
+      <c r="S98" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T98" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U98" s="10">
+        <v>11626.0</v>
+      </c>
+      <c r="V98" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W98" s="10">
+        <v>26265.0</v>
+      </c>
+      <c r="X98" s="10">
+        <v>69650.0</v>
+      </c>
+      <c r="Y98" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z98" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA98" s="10">
+        <v>18040.0</v>
+      </c>
+      <c r="AB98" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC98" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F99" s="6">
+        <v>4030.0</v>
+      </c>
+      <c r="G99" s="6">
+        <v>9465.0</v>
+      </c>
+      <c r="H99" s="6">
+        <v>7447.0</v>
+      </c>
+      <c r="I99" s="6">
+        <v>3276.0</v>
+      </c>
+      <c r="J99" s="6">
+        <v>8846.0</v>
+      </c>
+      <c r="K99" s="6">
+        <v>4623.0</v>
+      </c>
+      <c r="L99" s="6">
+        <v>5624.0</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N99" s="6">
+        <v>6750.0</v>
+      </c>
+      <c r="O99" s="6">
+        <v>2005.0</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q99" s="6">
+        <v>3669.0</v>
+      </c>
+      <c r="R99" s="6">
+        <v>2023.0</v>
+      </c>
+      <c r="S99" s="6">
+        <v>6337.0</v>
+      </c>
+      <c r="T99" s="6">
+        <v>3911.0</v>
+      </c>
+      <c r="U99" s="6">
+        <v>1263.0</v>
+      </c>
+      <c r="V99" s="6">
+        <v>5557.0</v>
+      </c>
+      <c r="W99" s="6">
+        <v>3326.0</v>
+      </c>
+      <c r="X99" s="6">
+        <v>18840.0</v>
+      </c>
+      <c r="Y99" s="6">
+        <v>21207.0</v>
+      </c>
+      <c r="Z99" s="6">
+        <v>33089.0</v>
+      </c>
+      <c r="AA99" s="6">
+        <v>27018.0</v>
+      </c>
+      <c r="AB99" s="6">
+        <v>27702.0</v>
+      </c>
+      <c r="AC99" s="7">
+        <v>29081.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I100" s="10">
+        <v>29258.0</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L100" s="10">
+        <v>30435.0</v>
+      </c>
+      <c r="M100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O100" s="10">
+        <v>19114.0</v>
+      </c>
+      <c r="P100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R100" s="10">
+        <v>13528.0</v>
+      </c>
+      <c r="S100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U100" s="10">
+        <v>8915.0</v>
+      </c>
+      <c r="V100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W100" s="10">
+        <v>35994.0</v>
+      </c>
+      <c r="X100" s="10">
+        <v>77433.0</v>
+      </c>
+      <c r="Y100" s="10">
+        <v>96828.0</v>
+      </c>
+      <c r="Z100" s="10">
+        <v>96205.0</v>
+      </c>
+      <c r="AA100" s="10">
+        <v>72505.0</v>
+      </c>
+      <c r="AB100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC100" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/cet_colg_data.xlsx
+++ b/cet_colg_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="154">
   <si>
     <t>College Code</t>
   </si>
@@ -362,6 +362,117 @@
   </si>
   <si>
     <t>DB</t>
+  </si>
+  <si>
+    <t>E013</t>
+  </si>
+  <si>
+    <t>Ramanagara</t>
+  </si>
+  <si>
+    <t>Ghousia Engineering College, Ramanagara</t>
+  </si>
+  <si>
+    <t>E014</t>
+  </si>
+  <si>
+    <t>Chickballapur</t>
+  </si>
+  <si>
+    <t>S J C Institute of Technology, Chickballapur</t>
+  </si>
+  <si>
+    <t>Civil Engineering (Kannada)</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>E016</t>
+  </si>
+  <si>
+    <t>Tumkur</t>
+  </si>
+  <si>
+    <t>Siddaganga Institute of Technology, Tumkur</t>
+  </si>
+  <si>
+    <t>E021</t>
+  </si>
+  <si>
+    <t>Mysore</t>
+  </si>
+  <si>
+    <t>Sri Jayachamarajendra College of Engineering(Const. of JSS Univ.)</t>
+  </si>
+  <si>
+    <t>Electronics, Instrumentation. Tech.</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>EN Environmental</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Industrial and Production Engineering</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Polymer Tech.</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>E023</t>
+  </si>
+  <si>
+    <t>Mandya</t>
+  </si>
+  <si>
+    <t>P E S College of Engineering, Mandya</t>
+  </si>
+  <si>
+    <t>E024</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>Malnad College of Engineering, Hassan</t>
+  </si>
+  <si>
+    <t>E031</t>
+  </si>
+  <si>
+    <t>Bagalkot</t>
+  </si>
+  <si>
+    <t>Basaveshwara Engineering College, Bagalkot</t>
+  </si>
+  <si>
+    <t>E034</t>
+  </si>
+  <si>
+    <t>Dharwad</t>
+  </si>
+  <si>
+    <t>Sri Dharmasthala Manjunatheswara College of Engineering, Dharwad</t>
+  </si>
+  <si>
+    <t>E033</t>
+  </si>
+  <si>
+    <t>Ranebennur</t>
+  </si>
+  <si>
+    <t>Sri Taralabalu Jagadguru Institute of Technology, Ranebennur</t>
   </si>
 </sst>
 </file>
@@ -9684,6 +9795,6503 @@
         <v>36</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" s="10">
+        <v>75305.0</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I101" s="10">
+        <v>76033.0</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K101" s="10">
+        <v>95910.0</v>
+      </c>
+      <c r="L101" s="10">
+        <v>79660.0</v>
+      </c>
+      <c r="M101" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N101" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O101" s="10">
+        <v>64990.0</v>
+      </c>
+      <c r="P101" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q101" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R101" s="10">
+        <v>67004.0</v>
+      </c>
+      <c r="S101" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T101" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U101" s="10">
+        <v>55343.0</v>
+      </c>
+      <c r="V101" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W101" s="10">
+        <v>63683.0</v>
+      </c>
+      <c r="X101" s="10">
+        <v>133593.0</v>
+      </c>
+      <c r="Y101" s="10">
+        <v>162137.0</v>
+      </c>
+      <c r="Z101" s="10">
+        <v>189727.0</v>
+      </c>
+      <c r="AA101" s="10">
+        <v>117285.0</v>
+      </c>
+      <c r="AB101" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC101" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I102" s="6">
+        <v>175838.0</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P102" s="6">
+        <v>142089.0</v>
+      </c>
+      <c r="Q102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U102" s="6">
+        <v>124627.0</v>
+      </c>
+      <c r="V102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W102" s="6">
+        <v>149266.0</v>
+      </c>
+      <c r="X102" s="6">
+        <v>190865.0</v>
+      </c>
+      <c r="Y102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA102" s="6">
+        <v>184865.0</v>
+      </c>
+      <c r="AB102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC102" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" s="10">
+        <v>94254.0</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I103" s="10">
+        <v>96667.0</v>
+      </c>
+      <c r="J103" s="10">
+        <v>101798.0</v>
+      </c>
+      <c r="K103" s="10">
+        <v>104401.0</v>
+      </c>
+      <c r="L103" s="10">
+        <v>91659.0</v>
+      </c>
+      <c r="M103" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N103" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O103" s="10">
+        <v>72910.0</v>
+      </c>
+      <c r="P103" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q103" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R103" s="10">
+        <v>77943.0</v>
+      </c>
+      <c r="S103" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T103" s="10">
+        <v>82618.0</v>
+      </c>
+      <c r="U103" s="10">
+        <v>71070.0</v>
+      </c>
+      <c r="V103" s="10">
+        <v>87769.0</v>
+      </c>
+      <c r="W103" s="10">
+        <v>76083.0</v>
+      </c>
+      <c r="X103" s="10">
+        <v>146704.0</v>
+      </c>
+      <c r="Y103" s="10">
+        <v>147962.0</v>
+      </c>
+      <c r="Z103" s="10">
+        <v>153815.0</v>
+      </c>
+      <c r="AA103" s="10">
+        <v>135651.0</v>
+      </c>
+      <c r="AB103" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC103" s="11">
+        <v>136728.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="6">
+        <v>104081.0</v>
+      </c>
+      <c r="I104" s="6">
+        <v>98907.0</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R104" s="6">
+        <v>91715.0</v>
+      </c>
+      <c r="S104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U104" s="6">
+        <v>81547.0</v>
+      </c>
+      <c r="V104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W104" s="6">
+        <v>96609.0</v>
+      </c>
+      <c r="X104" s="6">
+        <v>139778.0</v>
+      </c>
+      <c r="Y104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA104" s="6">
+        <v>139635.0</v>
+      </c>
+      <c r="AB104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC104" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F105" s="10">
+        <v>114040.0</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I105" s="10">
+        <v>102650.0</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K105" s="10">
+        <v>105850.0</v>
+      </c>
+      <c r="L105" s="10">
+        <v>102882.0</v>
+      </c>
+      <c r="M105" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N105" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O105" s="10">
+        <v>79941.0</v>
+      </c>
+      <c r="P105" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q105" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R105" s="10">
+        <v>90954.0</v>
+      </c>
+      <c r="S105" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T105" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U105" s="10">
+        <v>79526.0</v>
+      </c>
+      <c r="V105" s="10">
+        <v>83660.0</v>
+      </c>
+      <c r="W105" s="10">
+        <v>79929.0</v>
+      </c>
+      <c r="X105" s="10">
+        <v>178317.0</v>
+      </c>
+      <c r="Y105" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z105" s="10">
+        <v>216213.0</v>
+      </c>
+      <c r="AA105" s="10">
+        <v>122922.0</v>
+      </c>
+      <c r="AB105" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC105" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I106" s="6">
+        <v>117630.0</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R106" s="6">
+        <v>103203.0</v>
+      </c>
+      <c r="S106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U106" s="6">
+        <v>101581.0</v>
+      </c>
+      <c r="V106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W106" s="6">
+        <v>114477.0</v>
+      </c>
+      <c r="X106" s="6">
+        <v>188368.0</v>
+      </c>
+      <c r="Y106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA106" s="6">
+        <v>227370.0</v>
+      </c>
+      <c r="AB106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC106" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F107" s="10">
+        <v>110887.0</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I107" s="10">
+        <v>105580.0</v>
+      </c>
+      <c r="J107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K107" s="10">
+        <v>123682.0</v>
+      </c>
+      <c r="L107" s="10">
+        <v>95704.0</v>
+      </c>
+      <c r="M107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O107" s="10">
+        <v>93245.0</v>
+      </c>
+      <c r="P107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R107" s="10">
+        <v>93843.0</v>
+      </c>
+      <c r="S107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U107" s="10">
+        <v>92798.0</v>
+      </c>
+      <c r="V107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W107" s="10">
+        <v>100567.0</v>
+      </c>
+      <c r="X107" s="10">
+        <v>183807.0</v>
+      </c>
+      <c r="Y107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA107" s="10">
+        <v>165193.0</v>
+      </c>
+      <c r="AB107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC107" s="11">
+        <v>238629.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC108" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I109" s="10">
+        <v>124607.0</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O109" s="10">
+        <v>104208.0</v>
+      </c>
+      <c r="P109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q109" s="10">
+        <v>112816.0</v>
+      </c>
+      <c r="R109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U109" s="10">
+        <v>101255.0</v>
+      </c>
+      <c r="V109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W109" s="10">
+        <v>101488.0</v>
+      </c>
+      <c r="X109" s="10">
+        <v>119851.0</v>
+      </c>
+      <c r="Y109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC109" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F110" s="6">
+        <v>49519.0</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I110" s="6">
+        <v>44845.0</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L110" s="6">
+        <v>60035.0</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N110" s="6">
+        <v>77840.0</v>
+      </c>
+      <c r="O110" s="6">
+        <v>42951.0</v>
+      </c>
+      <c r="P110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q110" s="6">
+        <v>44460.0</v>
+      </c>
+      <c r="R110" s="6">
+        <v>49787.0</v>
+      </c>
+      <c r="S110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U110" s="6">
+        <v>38323.0</v>
+      </c>
+      <c r="V110" s="6">
+        <v>50047.0</v>
+      </c>
+      <c r="W110" s="6">
+        <v>43465.0</v>
+      </c>
+      <c r="X110" s="6">
+        <v>104762.0</v>
+      </c>
+      <c r="Y110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA110" s="6">
+        <v>110654.0</v>
+      </c>
+      <c r="AB110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC110" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F111" s="10">
+        <v>70137.0</v>
+      </c>
+      <c r="G111" s="10">
+        <v>121981.0</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I111" s="10">
+        <v>58930.0</v>
+      </c>
+      <c r="J111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U111" s="10">
+        <v>52874.0</v>
+      </c>
+      <c r="V111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W111" s="10">
+        <v>69238.0</v>
+      </c>
+      <c r="X111" s="10">
+        <v>85817.0</v>
+      </c>
+      <c r="Y111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA111" s="10">
+        <v>101080.0</v>
+      </c>
+      <c r="AB111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC111" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F112" s="6">
+        <v>50227.0</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I112" s="6">
+        <v>46220.0</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L112" s="6">
+        <v>66990.0</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N112" s="6">
+        <v>75421.0</v>
+      </c>
+      <c r="O112" s="6">
+        <v>44557.0</v>
+      </c>
+      <c r="P112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R112" s="6">
+        <v>50665.0</v>
+      </c>
+      <c r="S112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U112" s="6">
+        <v>43772.0</v>
+      </c>
+      <c r="V112" s="6">
+        <v>64904.0</v>
+      </c>
+      <c r="W112" s="6">
+        <v>44931.0</v>
+      </c>
+      <c r="X112" s="6">
+        <v>119912.0</v>
+      </c>
+      <c r="Y112" s="6">
+        <v>131958.0</v>
+      </c>
+      <c r="Z112" s="6">
+        <v>135872.0</v>
+      </c>
+      <c r="AA112" s="6">
+        <v>109699.0</v>
+      </c>
+      <c r="AB112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC112" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F113" s="10">
+        <v>61635.0</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I113" s="10">
+        <v>83810.0</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K113" s="10">
+        <v>119737.0</v>
+      </c>
+      <c r="L113" s="10">
+        <v>75868.0</v>
+      </c>
+      <c r="M113" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N113" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O113" s="10">
+        <v>69447.0</v>
+      </c>
+      <c r="P113" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q113" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R113" s="10">
+        <v>76376.0</v>
+      </c>
+      <c r="S113" s="10">
+        <v>114305.0</v>
+      </c>
+      <c r="T113" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U113" s="10">
+        <v>59404.0</v>
+      </c>
+      <c r="V113" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W113" s="10">
+        <v>61597.0</v>
+      </c>
+      <c r="X113" s="10">
+        <v>154103.0</v>
+      </c>
+      <c r="Y113" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z113" s="10">
+        <v>176546.0</v>
+      </c>
+      <c r="AA113" s="10">
+        <v>145064.0</v>
+      </c>
+      <c r="AB113" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC113" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" s="6">
+        <v>142745.0</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I114" s="6">
+        <v>151520.0</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K114" s="6">
+        <v>168358.0</v>
+      </c>
+      <c r="L114" s="6">
+        <v>153453.0</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O114" s="6">
+        <v>119205.0</v>
+      </c>
+      <c r="P114" s="6">
+        <v>237372.0</v>
+      </c>
+      <c r="Q114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R114" s="6">
+        <v>127275.0</v>
+      </c>
+      <c r="S114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U114" s="6">
+        <v>119126.0</v>
+      </c>
+      <c r="V114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W114" s="6">
+        <v>142731.0</v>
+      </c>
+      <c r="X114" s="6">
+        <v>203936.0</v>
+      </c>
+      <c r="Y114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z114" s="6">
+        <v>208713.0</v>
+      </c>
+      <c r="AA114" s="6">
+        <v>150215.0</v>
+      </c>
+      <c r="AB114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC114" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I115" s="19">
+        <v>176855.0</v>
+      </c>
+      <c r="J115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O115" s="10">
+        <v>186859.0</v>
+      </c>
+      <c r="P115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U115" s="19">
+        <v>155384.0</v>
+      </c>
+      <c r="V115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W115" s="19">
+        <v>181346.0</v>
+      </c>
+      <c r="X115" s="19">
+        <v>187666.0</v>
+      </c>
+      <c r="Y115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB115" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC115" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" s="6">
+        <v>44265.0</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I116" s="9">
+        <v>43752.0</v>
+      </c>
+      <c r="J116" s="6">
+        <v>44527.0</v>
+      </c>
+      <c r="K116" s="6">
+        <v>51866.0</v>
+      </c>
+      <c r="L116" s="6">
+        <v>44909.0</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O116" s="6">
+        <v>34644.0</v>
+      </c>
+      <c r="P116" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q116" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R116" s="6">
+        <v>37913.0</v>
+      </c>
+      <c r="S116" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T116" s="6">
+        <v>42683.0</v>
+      </c>
+      <c r="U116" s="9">
+        <v>34014.0</v>
+      </c>
+      <c r="V116" s="6">
+        <v>37421.0</v>
+      </c>
+      <c r="W116" s="9">
+        <v>36910.0</v>
+      </c>
+      <c r="X116" s="9">
+        <v>88508.0</v>
+      </c>
+      <c r="Y116" s="6">
+        <v>94901.0</v>
+      </c>
+      <c r="Z116" s="6">
+        <v>96593.0</v>
+      </c>
+      <c r="AA116" s="6">
+        <v>93261.0</v>
+      </c>
+      <c r="AB116" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC116" s="7">
+        <v>102756.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F117" s="10">
+        <v>87291.0</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I117" s="19">
+        <v>67214.0</v>
+      </c>
+      <c r="J117" s="10">
+        <v>92356.0</v>
+      </c>
+      <c r="K117" s="10">
+        <v>86065.0</v>
+      </c>
+      <c r="L117" s="10">
+        <v>79366.0</v>
+      </c>
+      <c r="M117" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N117" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O117" s="10">
+        <v>63229.0</v>
+      </c>
+      <c r="P117" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q117" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R117" s="10">
+        <v>69053.0</v>
+      </c>
+      <c r="S117" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T117" s="10">
+        <v>76290.0</v>
+      </c>
+      <c r="U117" s="19">
+        <v>58155.0</v>
+      </c>
+      <c r="V117" s="10">
+        <v>71713.0</v>
+      </c>
+      <c r="W117" s="19">
+        <v>64025.0</v>
+      </c>
+      <c r="X117" s="19">
+        <v>153224.0</v>
+      </c>
+      <c r="Y117" s="10">
+        <v>158492.0</v>
+      </c>
+      <c r="Z117" s="10">
+        <v>163262.0</v>
+      </c>
+      <c r="AA117" s="10">
+        <v>146277.0</v>
+      </c>
+      <c r="AB117" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC117" s="11">
+        <v>168488.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F118" s="6">
+        <v>57597.0</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I118" s="9">
+        <v>56916.0</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K118" s="6">
+        <v>74180.0</v>
+      </c>
+      <c r="L118" s="6">
+        <v>52056.0</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O118" s="6">
+        <v>47583.0</v>
+      </c>
+      <c r="P118" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q118" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R118" s="6">
+        <v>55992.0</v>
+      </c>
+      <c r="S118" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T118" s="6">
+        <v>73640.0</v>
+      </c>
+      <c r="U118" s="9">
+        <v>47293.0</v>
+      </c>
+      <c r="V118" s="6">
+        <v>61616.0</v>
+      </c>
+      <c r="W118" s="9">
+        <v>51413.0</v>
+      </c>
+      <c r="X118" s="9">
+        <v>128098.0</v>
+      </c>
+      <c r="Y118" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z118" s="6">
+        <v>149608.0</v>
+      </c>
+      <c r="AA118" s="6">
+        <v>115623.0</v>
+      </c>
+      <c r="AB118" s="6">
+        <v>147348.0</v>
+      </c>
+      <c r="AC118" s="7">
+        <v>173472.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I119" s="19">
+        <v>113659.0</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q119" s="10">
+        <v>132922.0</v>
+      </c>
+      <c r="R119" s="10">
+        <v>109278.0</v>
+      </c>
+      <c r="S119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U119" s="19">
+        <v>108268.0</v>
+      </c>
+      <c r="V119" s="10">
+        <v>207884.0</v>
+      </c>
+      <c r="W119" s="19">
+        <v>117382.0</v>
+      </c>
+      <c r="X119" s="19">
+        <v>169398.0</v>
+      </c>
+      <c r="Y119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA119" s="10">
+        <v>177830.0</v>
+      </c>
+      <c r="AB119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC119" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H120" s="6">
+        <v>89153.0</v>
+      </c>
+      <c r="I120" s="9">
+        <v>51381.0</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L120" s="6">
+        <v>72130.0</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U120" s="9">
+        <v>46665.0</v>
+      </c>
+      <c r="V120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W120" s="9">
+        <v>51002.0</v>
+      </c>
+      <c r="X120" s="9">
+        <v>47947.0</v>
+      </c>
+      <c r="Y120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA120" s="6">
+        <v>56445.0</v>
+      </c>
+      <c r="AB120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC120" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F121" s="6">
+        <v>15576.0</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H121" s="6">
+        <v>18124.0</v>
+      </c>
+      <c r="I121" s="6">
+        <v>13930.0</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L121" s="6">
+        <v>20007.0</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O121" s="6">
+        <v>10266.0</v>
+      </c>
+      <c r="P121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q121" s="6">
+        <v>13253.0</v>
+      </c>
+      <c r="R121" s="6">
+        <v>10399.0</v>
+      </c>
+      <c r="S121" s="6">
+        <v>18983.0</v>
+      </c>
+      <c r="T121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U121" s="6">
+        <v>9823.0</v>
+      </c>
+      <c r="V121" s="6">
+        <v>16866.0</v>
+      </c>
+      <c r="W121" s="6">
+        <v>10823.0</v>
+      </c>
+      <c r="X121" s="6">
+        <v>43751.0</v>
+      </c>
+      <c r="Y121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA121" s="6">
+        <v>34460.0</v>
+      </c>
+      <c r="AB121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC121" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F122" s="10">
+        <v>66411.0</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I122" s="10">
+        <v>51514.0</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N122" s="10">
+        <v>261320.0</v>
+      </c>
+      <c r="O122" s="10">
+        <v>37268.0</v>
+      </c>
+      <c r="P122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U122" s="10">
+        <v>34492.0</v>
+      </c>
+      <c r="V122" s="10">
+        <v>56589.0</v>
+      </c>
+      <c r="W122" s="10">
+        <v>43861.0</v>
+      </c>
+      <c r="X122" s="10">
+        <v>142535.0</v>
+      </c>
+      <c r="Y122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA122" s="10">
+        <v>82126.0</v>
+      </c>
+      <c r="AB122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC122" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F123" s="6">
+        <v>14886.0</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H123" s="6">
+        <v>16250.0</v>
+      </c>
+      <c r="I123" s="6">
+        <v>12185.0</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L123" s="6">
+        <v>19357.0</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O123" s="6">
+        <v>9674.0</v>
+      </c>
+      <c r="P123" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q123" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R123" s="6">
+        <v>9766.0</v>
+      </c>
+      <c r="S123" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T123" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U123" s="6">
+        <v>9498.0</v>
+      </c>
+      <c r="V123" s="6">
+        <v>15044.0</v>
+      </c>
+      <c r="W123" s="6">
+        <v>10487.0</v>
+      </c>
+      <c r="X123" s="6">
+        <v>43206.0</v>
+      </c>
+      <c r="Y123" s="6">
+        <v>54784.0</v>
+      </c>
+      <c r="Z123" s="6">
+        <v>54857.0</v>
+      </c>
+      <c r="AA123" s="6">
+        <v>30193.0</v>
+      </c>
+      <c r="AB123" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC123" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" s="10">
+        <v>85161.0</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I124" s="10">
+        <v>92731.0</v>
+      </c>
+      <c r="J124" s="10">
+        <v>146114.0</v>
+      </c>
+      <c r="K124" s="10">
+        <v>99729.0</v>
+      </c>
+      <c r="L124" s="10">
+        <v>104314.0</v>
+      </c>
+      <c r="M124" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N124" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O124" s="10">
+        <v>81275.0</v>
+      </c>
+      <c r="P124" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q124" s="10">
+        <v>89537.0</v>
+      </c>
+      <c r="R124" s="10">
+        <v>92397.0</v>
+      </c>
+      <c r="S124" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T124" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U124" s="10">
+        <v>76489.0</v>
+      </c>
+      <c r="V124" s="10">
+        <v>80383.0</v>
+      </c>
+      <c r="W124" s="10">
+        <v>83926.0</v>
+      </c>
+      <c r="X124" s="10">
+        <v>126094.0</v>
+      </c>
+      <c r="Y124" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z124" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA124" s="10">
+        <v>111751.0</v>
+      </c>
+      <c r="AB124" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC124" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F125" s="6">
+        <v>85514.0</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I125" s="6">
+        <v>82576.0</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K125" s="6">
+        <v>121813.0</v>
+      </c>
+      <c r="L125" s="6">
+        <v>99301.0</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O125" s="6">
+        <v>62617.0</v>
+      </c>
+      <c r="P125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R125" s="6">
+        <v>63969.0</v>
+      </c>
+      <c r="S125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U125" s="6">
+        <v>52292.0</v>
+      </c>
+      <c r="V125" s="6">
+        <v>72393.0</v>
+      </c>
+      <c r="W125" s="6">
+        <v>61935.0</v>
+      </c>
+      <c r="X125" s="6">
+        <v>171532.0</v>
+      </c>
+      <c r="Y125" s="6">
+        <v>222989.0</v>
+      </c>
+      <c r="Z125" s="6">
+        <v>200578.0</v>
+      </c>
+      <c r="AA125" s="6">
+        <v>150079.0</v>
+      </c>
+      <c r="AB125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC125" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F126" s="10">
+        <v>12482.0</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I126" s="10">
+        <v>9846.0</v>
+      </c>
+      <c r="J126" s="10">
+        <v>16183.0</v>
+      </c>
+      <c r="K126" s="10">
+        <v>10704.0</v>
+      </c>
+      <c r="L126" s="10">
+        <v>14237.0</v>
+      </c>
+      <c r="M126" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N126" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O126" s="10">
+        <v>6923.0</v>
+      </c>
+      <c r="P126" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q126" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R126" s="10">
+        <v>6907.0</v>
+      </c>
+      <c r="S126" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T126" s="10">
+        <v>9369.0</v>
+      </c>
+      <c r="U126" s="10">
+        <v>6744.0</v>
+      </c>
+      <c r="V126" s="10">
+        <v>8617.0</v>
+      </c>
+      <c r="W126" s="10">
+        <v>8982.0</v>
+      </c>
+      <c r="X126" s="10">
+        <v>35241.0</v>
+      </c>
+      <c r="Y126" s="10">
+        <v>36555.0</v>
+      </c>
+      <c r="Z126" s="10">
+        <v>36450.0</v>
+      </c>
+      <c r="AA126" s="10">
+        <v>25350.0</v>
+      </c>
+      <c r="AB126" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC126" s="11">
+        <v>32887.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" s="6">
+        <v>14611.0</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I127" s="6">
+        <v>15448.0</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K127" s="6">
+        <v>15973.0</v>
+      </c>
+      <c r="L127" s="6">
+        <v>22842.0</v>
+      </c>
+      <c r="M127" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O127" s="6">
+        <v>11734.0</v>
+      </c>
+      <c r="P127" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q127" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R127" s="6">
+        <v>12575.0</v>
+      </c>
+      <c r="S127" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T127" s="6">
+        <v>16203.0</v>
+      </c>
+      <c r="U127" s="6">
+        <v>11526.0</v>
+      </c>
+      <c r="V127" s="6">
+        <v>14584.0</v>
+      </c>
+      <c r="W127" s="6">
+        <v>13708.0</v>
+      </c>
+      <c r="X127" s="6">
+        <v>57482.0</v>
+      </c>
+      <c r="Y127" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z127" s="6">
+        <v>63945.0</v>
+      </c>
+      <c r="AA127" s="6">
+        <v>49297.0</v>
+      </c>
+      <c r="AB127" s="6">
+        <v>61990.0</v>
+      </c>
+      <c r="AC127" s="7">
+        <v>51263.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F128" s="10">
+        <v>23516.0</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I128" s="10">
+        <v>27955.0</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K128" s="10">
+        <v>29807.0</v>
+      </c>
+      <c r="L128" s="10">
+        <v>39537.0</v>
+      </c>
+      <c r="M128" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N128" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O128" s="10">
+        <v>25042.0</v>
+      </c>
+      <c r="P128" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q128" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R128" s="10">
+        <v>22276.0</v>
+      </c>
+      <c r="S128" s="10">
+        <v>35282.0</v>
+      </c>
+      <c r="T128" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U128" s="10">
+        <v>21906.0</v>
+      </c>
+      <c r="V128" s="10">
+        <v>28233.0</v>
+      </c>
+      <c r="W128" s="10">
+        <v>29394.0</v>
+      </c>
+      <c r="X128" s="10">
+        <v>76564.0</v>
+      </c>
+      <c r="Y128" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z128" s="10">
+        <v>84332.0</v>
+      </c>
+      <c r="AA128" s="10">
+        <v>56822.0</v>
+      </c>
+      <c r="AB128" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC128" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F129" s="6">
+        <v>40800.0</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H129" s="6">
+        <v>84940.0</v>
+      </c>
+      <c r="I129" s="6">
+        <v>37098.0</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K129" s="6">
+        <v>43734.0</v>
+      </c>
+      <c r="L129" s="6">
+        <v>31878.0</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N129" s="6">
+        <v>81047.0</v>
+      </c>
+      <c r="O129" s="6">
+        <v>31623.0</v>
+      </c>
+      <c r="P129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R129" s="6">
+        <v>31819.0</v>
+      </c>
+      <c r="S129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U129" s="6">
+        <v>29455.0</v>
+      </c>
+      <c r="V129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W129" s="6">
+        <v>36748.0</v>
+      </c>
+      <c r="X129" s="6">
+        <v>91639.0</v>
+      </c>
+      <c r="Y129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA129" s="6">
+        <v>81512.0</v>
+      </c>
+      <c r="AB129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC129" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F130" s="10">
+        <v>23984.0</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I130" s="10">
+        <v>31013.0</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K130" s="10">
+        <v>34629.0</v>
+      </c>
+      <c r="L130" s="10">
+        <v>40510.0</v>
+      </c>
+      <c r="M130" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N130" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O130" s="10">
+        <v>26787.0</v>
+      </c>
+      <c r="P130" s="10">
+        <v>40318.0</v>
+      </c>
+      <c r="Q130" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R130" s="10">
+        <v>21288.0</v>
+      </c>
+      <c r="S130" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T130" s="10">
+        <v>27919.0</v>
+      </c>
+      <c r="U130" s="10">
+        <v>20518.0</v>
+      </c>
+      <c r="V130" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W130" s="10">
+        <v>27376.0</v>
+      </c>
+      <c r="X130" s="10">
+        <v>76678.0</v>
+      </c>
+      <c r="Y130" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z130" s="10">
+        <v>85584.0</v>
+      </c>
+      <c r="AA130" s="10">
+        <v>64739.0</v>
+      </c>
+      <c r="AB130" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC130" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F131" s="6">
+        <v>12835.0</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I131" s="6">
+        <v>12123.0</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K131" s="6">
+        <v>12169.0</v>
+      </c>
+      <c r="L131" s="6">
+        <v>14581.0</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O131" s="6">
+        <v>8866.0</v>
+      </c>
+      <c r="P131" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q131" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R131" s="6">
+        <v>9255.0</v>
+      </c>
+      <c r="S131" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T131" s="6">
+        <v>10815.0</v>
+      </c>
+      <c r="U131" s="6">
+        <v>8806.0</v>
+      </c>
+      <c r="V131" s="6">
+        <v>11516.0</v>
+      </c>
+      <c r="W131" s="6">
+        <v>10138.0</v>
+      </c>
+      <c r="X131" s="6">
+        <v>49559.0</v>
+      </c>
+      <c r="Y131" s="6">
+        <v>62551.0</v>
+      </c>
+      <c r="Z131" s="6">
+        <v>55997.0</v>
+      </c>
+      <c r="AA131" s="6">
+        <v>33116.0</v>
+      </c>
+      <c r="AB131" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC131" s="7">
+        <v>34844.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F132" s="10">
+        <v>59906.0</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I132" s="10">
+        <v>81808.0</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K132" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L132" s="10">
+        <v>92096.0</v>
+      </c>
+      <c r="M132" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N132" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O132" s="10">
+        <v>62184.0</v>
+      </c>
+      <c r="P132" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q132" s="10">
+        <v>87469.0</v>
+      </c>
+      <c r="R132" s="10">
+        <v>75444.0</v>
+      </c>
+      <c r="S132" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T132" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U132" s="10">
+        <v>59411.0</v>
+      </c>
+      <c r="V132" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W132" s="10">
+        <v>72025.0</v>
+      </c>
+      <c r="X132" s="10">
+        <v>191003.0</v>
+      </c>
+      <c r="Y132" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z132" s="10">
+        <v>194960.0</v>
+      </c>
+      <c r="AA132" s="10">
+        <v>125184.0</v>
+      </c>
+      <c r="AB132" s="10">
+        <v>164150.0</v>
+      </c>
+      <c r="AC132" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F133" s="6">
+        <v>76832.0</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I133" s="6">
+        <v>81573.0</v>
+      </c>
+      <c r="J133" s="6">
+        <v>103936.0</v>
+      </c>
+      <c r="K133" s="6">
+        <v>110761.0</v>
+      </c>
+      <c r="L133" s="6">
+        <v>107215.0</v>
+      </c>
+      <c r="M133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N133" s="6">
+        <v>273690.0</v>
+      </c>
+      <c r="O133" s="6">
+        <v>70945.0</v>
+      </c>
+      <c r="P133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R133" s="6">
+        <v>71568.0</v>
+      </c>
+      <c r="S133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U133" s="6">
+        <v>67477.0</v>
+      </c>
+      <c r="V133" s="6">
+        <v>71025.0</v>
+      </c>
+      <c r="W133" s="6">
+        <v>85029.0</v>
+      </c>
+      <c r="X133" s="6">
+        <v>163774.0</v>
+      </c>
+      <c r="Y133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z133" s="6">
+        <v>198106.0</v>
+      </c>
+      <c r="AA133" s="6">
+        <v>162704.0</v>
+      </c>
+      <c r="AB133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC133" s="7">
+        <v>232678.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F134" s="6">
+        <v>49180.0</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I134" s="6">
+        <v>64890.0</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K134" s="6">
+        <v>70257.0</v>
+      </c>
+      <c r="L134" s="6">
+        <v>92774.0</v>
+      </c>
+      <c r="M134" s="6">
+        <v>242263.0</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O134" s="6">
+        <v>47394.0</v>
+      </c>
+      <c r="P134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q134" s="6">
+        <v>75021.0</v>
+      </c>
+      <c r="R134" s="6">
+        <v>56729.0</v>
+      </c>
+      <c r="S134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U134" s="6">
+        <v>46904.0</v>
+      </c>
+      <c r="V134" s="6">
+        <v>60639.0</v>
+      </c>
+      <c r="W134" s="6">
+        <v>65988.0</v>
+      </c>
+      <c r="X134" s="6">
+        <v>99121.0</v>
+      </c>
+      <c r="Y134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z134" s="6">
+        <v>116887.0</v>
+      </c>
+      <c r="AA134" s="6">
+        <v>108015.0</v>
+      </c>
+      <c r="AB134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC134" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F135" s="10">
+        <v>6255.0</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I135" s="10">
+        <v>5046.0</v>
+      </c>
+      <c r="J135" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K135" s="10">
+        <v>7458.0</v>
+      </c>
+      <c r="L135" s="10">
+        <v>6370.0</v>
+      </c>
+      <c r="M135" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N135" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O135" s="10">
+        <v>2983.0</v>
+      </c>
+      <c r="P135" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q135" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R135" s="10">
+        <v>3418.0</v>
+      </c>
+      <c r="S135" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T135" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U135" s="10">
+        <v>2669.0</v>
+      </c>
+      <c r="V135" s="10">
+        <v>6339.0</v>
+      </c>
+      <c r="W135" s="10">
+        <v>4642.0</v>
+      </c>
+      <c r="X135" s="10">
+        <v>13517.0</v>
+      </c>
+      <c r="Y135" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z135" s="10">
+        <v>15256.0</v>
+      </c>
+      <c r="AA135" s="10">
+        <v>12769.0</v>
+      </c>
+      <c r="AB135" s="10">
+        <v>34851.0</v>
+      </c>
+      <c r="AC135" s="11">
+        <v>23044.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F136" s="6">
+        <v>10864.0</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I136" s="6">
+        <v>8596.0</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K136" s="6">
+        <v>12100.0</v>
+      </c>
+      <c r="L136" s="6">
+        <v>21879.0</v>
+      </c>
+      <c r="M136" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N136" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O136" s="6">
+        <v>6308.0</v>
+      </c>
+      <c r="P136" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q136" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R136" s="6">
+        <v>6258.0</v>
+      </c>
+      <c r="S136" s="6">
+        <v>10645.0</v>
+      </c>
+      <c r="T136" s="6">
+        <v>11437.0</v>
+      </c>
+      <c r="U136" s="6">
+        <v>5525.0</v>
+      </c>
+      <c r="V136" s="6">
+        <v>7725.0</v>
+      </c>
+      <c r="W136" s="6">
+        <v>9461.0</v>
+      </c>
+      <c r="X136" s="6">
+        <v>28477.0</v>
+      </c>
+      <c r="Y136" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z136" s="6">
+        <v>50312.0</v>
+      </c>
+      <c r="AA136" s="6">
+        <v>26418.0</v>
+      </c>
+      <c r="AB136" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC136" s="7">
+        <v>32966.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F137" s="19">
+        <v>28966.0</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I137" s="10">
+        <v>24270.0</v>
+      </c>
+      <c r="J137" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K137" s="10">
+        <v>30803.0</v>
+      </c>
+      <c r="L137" s="10">
+        <v>19201.0</v>
+      </c>
+      <c r="M137" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N137" s="10">
+        <v>45444.0</v>
+      </c>
+      <c r="O137" s="10">
+        <v>18572.0</v>
+      </c>
+      <c r="P137" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q137" s="10">
+        <v>21951.0</v>
+      </c>
+      <c r="R137" s="10">
+        <v>18296.0</v>
+      </c>
+      <c r="S137" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T137" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U137" s="10">
+        <v>16571.0</v>
+      </c>
+      <c r="V137" s="10">
+        <v>30106.0</v>
+      </c>
+      <c r="W137" s="10">
+        <v>18396.0</v>
+      </c>
+      <c r="X137" s="10">
+        <v>49409.0</v>
+      </c>
+      <c r="Y137" s="10">
+        <v>68529.0</v>
+      </c>
+      <c r="Z137" s="10">
+        <v>77959.0</v>
+      </c>
+      <c r="AA137" s="10">
+        <v>53521.0</v>
+      </c>
+      <c r="AB137" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC137" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC138" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F139" s="19">
+        <v>31749.0</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H139" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I139" s="10">
+        <v>38449.0</v>
+      </c>
+      <c r="J139" s="10">
+        <v>39984.0</v>
+      </c>
+      <c r="K139" s="10">
+        <v>55677.0</v>
+      </c>
+      <c r="L139" s="10">
+        <v>45114.0</v>
+      </c>
+      <c r="M139" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N139" s="10">
+        <v>137489.0</v>
+      </c>
+      <c r="O139" s="10">
+        <v>20454.0</v>
+      </c>
+      <c r="P139" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q139" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R139" s="10">
+        <v>27933.0</v>
+      </c>
+      <c r="S139" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T139" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U139" s="10">
+        <v>19997.0</v>
+      </c>
+      <c r="V139" s="10">
+        <v>36634.0</v>
+      </c>
+      <c r="W139" s="10">
+        <v>36866.0</v>
+      </c>
+      <c r="X139" s="10">
+        <v>86945.0</v>
+      </c>
+      <c r="Y139" s="10">
+        <v>106330.0</v>
+      </c>
+      <c r="Z139" s="10">
+        <v>87546.0</v>
+      </c>
+      <c r="AA139" s="10">
+        <v>109135.0</v>
+      </c>
+      <c r="AB139" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC139" s="11">
+        <v>126235.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F140" s="6">
+        <v>76888.0</v>
+      </c>
+      <c r="G140" s="6">
+        <v>102302.0</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I140" s="6">
+        <v>89899.0</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K140" s="6">
+        <v>99954.0</v>
+      </c>
+      <c r="L140" s="6">
+        <v>110419.0</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N140" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O140" s="6">
+        <v>87086.0</v>
+      </c>
+      <c r="P140" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q140" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R140" s="6">
+        <v>72162.0</v>
+      </c>
+      <c r="S140" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T140" s="6">
+        <v>120696.0</v>
+      </c>
+      <c r="U140" s="6">
+        <v>65066.0</v>
+      </c>
+      <c r="V140" s="6">
+        <v>68086.0</v>
+      </c>
+      <c r="W140" s="6">
+        <v>80682.0</v>
+      </c>
+      <c r="X140" s="6">
+        <v>146764.0</v>
+      </c>
+      <c r="Y140" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z140" s="6">
+        <v>166830.0</v>
+      </c>
+      <c r="AA140" s="6">
+        <v>109569.0</v>
+      </c>
+      <c r="AB140" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC140" s="7">
+        <v>133217.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F141" s="10">
+        <v>100802.0</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H141" s="10">
+        <v>130664.0</v>
+      </c>
+      <c r="I141" s="10">
+        <v>98859.0</v>
+      </c>
+      <c r="J141" s="10">
+        <v>141010.0</v>
+      </c>
+      <c r="K141" s="10">
+        <v>133030.0</v>
+      </c>
+      <c r="L141" s="10">
+        <v>126577.0</v>
+      </c>
+      <c r="M141" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N141" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O141" s="10">
+        <v>78831.0</v>
+      </c>
+      <c r="P141" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q141" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R141" s="10">
+        <v>85391.0</v>
+      </c>
+      <c r="S141" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T141" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U141" s="10">
+        <v>77552.0</v>
+      </c>
+      <c r="V141" s="10">
+        <v>88041.0</v>
+      </c>
+      <c r="W141" s="10">
+        <v>117291.0</v>
+      </c>
+      <c r="X141" s="10">
+        <v>162327.0</v>
+      </c>
+      <c r="Y141" s="10">
+        <v>179379.0</v>
+      </c>
+      <c r="Z141" s="10">
+        <v>186103.0</v>
+      </c>
+      <c r="AA141" s="10">
+        <v>181387.0</v>
+      </c>
+      <c r="AB141" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC141" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F142" s="6">
+        <v>60735.0</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H142" s="6">
+        <v>112819.0</v>
+      </c>
+      <c r="I142" s="6">
+        <v>53642.0</v>
+      </c>
+      <c r="J142" s="6">
+        <v>74924.0</v>
+      </c>
+      <c r="K142" s="6">
+        <v>56210.0</v>
+      </c>
+      <c r="L142" s="6">
+        <v>53875.0</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N142" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O142" s="6">
+        <v>40550.0</v>
+      </c>
+      <c r="P142" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q142" s="6">
+        <v>48264.0</v>
+      </c>
+      <c r="R142" s="6">
+        <v>39196.0</v>
+      </c>
+      <c r="S142" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T142" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U142" s="6">
+        <v>38026.0</v>
+      </c>
+      <c r="V142" s="6">
+        <v>46808.0</v>
+      </c>
+      <c r="W142" s="6">
+        <v>46785.0</v>
+      </c>
+      <c r="X142" s="6">
+        <v>105574.0</v>
+      </c>
+      <c r="Y142" s="6">
+        <v>107780.0</v>
+      </c>
+      <c r="Z142" s="6">
+        <v>138713.0</v>
+      </c>
+      <c r="AA142" s="6">
+        <v>94817.0</v>
+      </c>
+      <c r="AB142" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC142" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F143" s="10">
+        <v>140563.0</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H143" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I143" s="10">
+        <v>100142.0</v>
+      </c>
+      <c r="J143" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K143" s="10">
+        <v>146054.0</v>
+      </c>
+      <c r="L143" s="10">
+        <v>121336.0</v>
+      </c>
+      <c r="M143" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N143" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O143" s="10">
+        <v>92888.0</v>
+      </c>
+      <c r="P143" s="10">
+        <v>159796.0</v>
+      </c>
+      <c r="Q143" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R143" s="10">
+        <v>104566.0</v>
+      </c>
+      <c r="S143" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T143" s="10">
+        <v>151667.0</v>
+      </c>
+      <c r="U143" s="10">
+        <v>80994.0</v>
+      </c>
+      <c r="V143" s="10">
+        <v>120180.0</v>
+      </c>
+      <c r="W143" s="10">
+        <v>139603.0</v>
+      </c>
+      <c r="X143" s="10">
+        <v>170330.0</v>
+      </c>
+      <c r="Y143" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z143" s="10">
+        <v>174995.0</v>
+      </c>
+      <c r="AA143" s="10">
+        <v>154653.0</v>
+      </c>
+      <c r="AB143" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC143" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="V144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB144" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC144" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" s="6">
+        <v>147354.0</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I145" s="6">
+        <v>147664.0</v>
+      </c>
+      <c r="J145" s="6">
+        <v>152814.0</v>
+      </c>
+      <c r="K145" s="6">
+        <v>159227.0</v>
+      </c>
+      <c r="L145" s="6">
+        <v>153561.0</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N145" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O145" s="6">
+        <v>120936.0</v>
+      </c>
+      <c r="P145" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q145" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R145" s="6">
+        <v>127929.0</v>
+      </c>
+      <c r="S145" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T145" s="6">
+        <v>148368.0</v>
+      </c>
+      <c r="U145" s="6">
+        <v>118199.0</v>
+      </c>
+      <c r="V145" s="6">
+        <v>145143.0</v>
+      </c>
+      <c r="W145" s="6">
+        <v>133433.0</v>
+      </c>
+      <c r="X145" s="6">
+        <v>157703.0</v>
+      </c>
+      <c r="Y145" s="6">
+        <v>166891.0</v>
+      </c>
+      <c r="Z145" s="6">
+        <v>162637.0</v>
+      </c>
+      <c r="AA145" s="6">
+        <v>179650.0</v>
+      </c>
+      <c r="AB145" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC145" s="7">
+        <v>198548.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F146" s="10">
+        <v>38987.0</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I146" s="10">
+        <v>34597.0</v>
+      </c>
+      <c r="J146" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K146" s="10">
+        <v>35483.0</v>
+      </c>
+      <c r="L146" s="10">
+        <v>30323.0</v>
+      </c>
+      <c r="M146" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N146" s="10">
+        <v>67551.0</v>
+      </c>
+      <c r="O146" s="10">
+        <v>29042.0</v>
+      </c>
+      <c r="P146" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q146" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R146" s="10">
+        <v>29780.0</v>
+      </c>
+      <c r="S146" s="10">
+        <v>40644.0</v>
+      </c>
+      <c r="T146" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U146" s="10">
+        <v>26371.0</v>
+      </c>
+      <c r="V146" s="10">
+        <v>29398.0</v>
+      </c>
+      <c r="W146" s="10">
+        <v>28710.0</v>
+      </c>
+      <c r="X146" s="10">
+        <v>80974.0</v>
+      </c>
+      <c r="Y146" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z146" s="10">
+        <v>82353.0</v>
+      </c>
+      <c r="AA146" s="10">
+        <v>91953.0</v>
+      </c>
+      <c r="AB146" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC146" s="11">
+        <v>119738.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F147" s="6">
+        <v>56230.0</v>
+      </c>
+      <c r="G147" s="6">
+        <v>95312.0</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I147" s="6">
+        <v>58666.0</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K147" s="6">
+        <v>64178.0</v>
+      </c>
+      <c r="L147" s="6">
+        <v>54641.0</v>
+      </c>
+      <c r="M147" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O147" s="6">
+        <v>50132.0</v>
+      </c>
+      <c r="P147" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q147" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R147" s="6">
+        <v>43086.0</v>
+      </c>
+      <c r="S147" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T147" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U147" s="6">
+        <v>42859.0</v>
+      </c>
+      <c r="V147" s="6">
+        <v>52495.0</v>
+      </c>
+      <c r="W147" s="6">
+        <v>56118.0</v>
+      </c>
+      <c r="X147" s="6">
+        <v>101907.0</v>
+      </c>
+      <c r="Y147" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z147" s="6">
+        <v>111601.0</v>
+      </c>
+      <c r="AA147" s="6">
+        <v>114709.0</v>
+      </c>
+      <c r="AB147" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC147" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="V148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB148" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC148" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F149" s="6">
+        <v>138781.0</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H149" s="6">
+        <v>141789.0</v>
+      </c>
+      <c r="I149" s="6">
+        <v>136583.0</v>
+      </c>
+      <c r="J149" s="6">
+        <v>152739.0</v>
+      </c>
+      <c r="K149" s="6">
+        <v>161165.0</v>
+      </c>
+      <c r="L149" s="6">
+        <v>157946.0</v>
+      </c>
+      <c r="M149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N149" s="6">
+        <v>267748.0</v>
+      </c>
+      <c r="O149" s="6">
+        <v>119833.0</v>
+      </c>
+      <c r="P149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q149" s="6">
+        <v>135816.0</v>
+      </c>
+      <c r="R149" s="6">
+        <v>122607.0</v>
+      </c>
+      <c r="S149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T149" s="6">
+        <v>140102.0</v>
+      </c>
+      <c r="U149" s="6">
+        <v>109686.0</v>
+      </c>
+      <c r="V149" s="6">
+        <v>138590.0</v>
+      </c>
+      <c r="W149" s="6">
+        <v>133615.0</v>
+      </c>
+      <c r="X149" s="6">
+        <v>197651.0</v>
+      </c>
+      <c r="Y149" s="6">
+        <v>227922.0</v>
+      </c>
+      <c r="Z149" s="6">
+        <v>226170.0</v>
+      </c>
+      <c r="AA149" s="6">
+        <v>200266.0</v>
+      </c>
+      <c r="AB149" s="6">
+        <v>254840.0</v>
+      </c>
+      <c r="AC149" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F150" s="10">
+        <v>133995.0</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I150" s="10">
+        <v>139445.0</v>
+      </c>
+      <c r="J150" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K150" s="10">
+        <v>157927.0</v>
+      </c>
+      <c r="L150" s="10">
+        <v>114271.0</v>
+      </c>
+      <c r="M150" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N150" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O150" s="10">
+        <v>96628.0</v>
+      </c>
+      <c r="P150" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q150" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R150" s="10">
+        <v>120668.0</v>
+      </c>
+      <c r="S150" s="10">
+        <v>142226.0</v>
+      </c>
+      <c r="T150" s="10">
+        <v>136633.0</v>
+      </c>
+      <c r="U150" s="10">
+        <v>84656.0</v>
+      </c>
+      <c r="V150" s="10">
+        <v>101094.0</v>
+      </c>
+      <c r="W150" s="10">
+        <v>115887.0</v>
+      </c>
+      <c r="X150" s="10">
+        <v>169909.0</v>
+      </c>
+      <c r="Y150" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z150" s="10">
+        <v>184314.0</v>
+      </c>
+      <c r="AA150" s="10">
+        <v>173083.0</v>
+      </c>
+      <c r="AB150" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC150" s="11">
+        <v>202469.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F151" s="6">
+        <v>47466.0</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H151" s="6">
+        <v>63068.0</v>
+      </c>
+      <c r="I151" s="6">
+        <v>37175.0</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K151" s="6">
+        <v>40018.0</v>
+      </c>
+      <c r="L151" s="6">
+        <v>40025.0</v>
+      </c>
+      <c r="M151" s="6">
+        <v>99536.0</v>
+      </c>
+      <c r="N151" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O151" s="6">
+        <v>32718.0</v>
+      </c>
+      <c r="P151" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q151" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R151" s="6">
+        <v>33251.0</v>
+      </c>
+      <c r="S151" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T151" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U151" s="6">
+        <v>30395.0</v>
+      </c>
+      <c r="V151" s="6">
+        <v>32074.0</v>
+      </c>
+      <c r="W151" s="6">
+        <v>33329.0</v>
+      </c>
+      <c r="X151" s="6">
+        <v>99492.0</v>
+      </c>
+      <c r="Y151" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z151" s="6">
+        <v>108946.0</v>
+      </c>
+      <c r="AA151" s="6">
+        <v>70406.0</v>
+      </c>
+      <c r="AB151" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC151" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F152" s="10">
+        <v>81659.0</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I152" s="10">
+        <v>78300.0</v>
+      </c>
+      <c r="J152" s="10">
+        <v>91160.0</v>
+      </c>
+      <c r="K152" s="10">
+        <v>84957.0</v>
+      </c>
+      <c r="L152" s="10">
+        <v>77667.0</v>
+      </c>
+      <c r="M152" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N152" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O152" s="10">
+        <v>54356.0</v>
+      </c>
+      <c r="P152" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q152" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R152" s="10">
+        <v>61580.0</v>
+      </c>
+      <c r="S152" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T152" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U152" s="10">
+        <v>54016.0</v>
+      </c>
+      <c r="V152" s="10">
+        <v>56148.0</v>
+      </c>
+      <c r="W152" s="10">
+        <v>68236.0</v>
+      </c>
+      <c r="X152" s="10">
+        <v>135313.0</v>
+      </c>
+      <c r="Y152" s="10">
+        <v>153516.0</v>
+      </c>
+      <c r="Z152" s="10">
+        <v>174943.0</v>
+      </c>
+      <c r="AA152" s="10">
+        <v>140372.0</v>
+      </c>
+      <c r="AB152" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC152" s="11">
+        <v>159207.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F153" s="6">
+        <v>145909.0</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H153" s="6">
+        <v>237349.0</v>
+      </c>
+      <c r="I153" s="6">
+        <v>147255.0</v>
+      </c>
+      <c r="J153" s="6">
+        <v>160198.0</v>
+      </c>
+      <c r="K153" s="6">
+        <v>165082.0</v>
+      </c>
+      <c r="L153" s="6">
+        <v>166603.0</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N153" s="6">
+        <v>268524.0</v>
+      </c>
+      <c r="O153" s="6">
+        <v>126458.0</v>
+      </c>
+      <c r="P153" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q153" s="6">
+        <v>139609.0</v>
+      </c>
+      <c r="R153" s="6">
+        <v>128008.0</v>
+      </c>
+      <c r="S153" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T153" s="6">
+        <v>141332.0</v>
+      </c>
+      <c r="U153" s="6">
+        <v>123779.0</v>
+      </c>
+      <c r="V153" s="6">
+        <v>142494.0</v>
+      </c>
+      <c r="W153" s="6">
+        <v>139596.0</v>
+      </c>
+      <c r="X153" s="6">
+        <v>218598.0</v>
+      </c>
+      <c r="Y153" s="6">
+        <v>235585.0</v>
+      </c>
+      <c r="Z153" s="6">
+        <v>237608.0</v>
+      </c>
+      <c r="AA153" s="6">
+        <v>272889.0</v>
+      </c>
+      <c r="AB153" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC153" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F154" s="10">
+        <v>122228.0</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I154" s="10">
+        <v>112223.0</v>
+      </c>
+      <c r="J154" s="10">
+        <v>116667.0</v>
+      </c>
+      <c r="K154" s="10">
+        <v>145262.0</v>
+      </c>
+      <c r="L154" s="10">
+        <v>145666.0</v>
+      </c>
+      <c r="M154" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N154" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O154" s="10">
+        <v>133188.0</v>
+      </c>
+      <c r="P154" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q154" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R154" s="10">
+        <v>112854.0</v>
+      </c>
+      <c r="S154" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T154" s="10">
+        <v>127782.0</v>
+      </c>
+      <c r="U154" s="10">
+        <v>90665.0</v>
+      </c>
+      <c r="V154" s="10">
+        <v>96178.0</v>
+      </c>
+      <c r="W154" s="10">
+        <v>108972.0</v>
+      </c>
+      <c r="X154" s="10">
+        <v>143301.0</v>
+      </c>
+      <c r="Y154" s="10">
+        <v>143324.0</v>
+      </c>
+      <c r="Z154" s="10">
+        <v>181514.0</v>
+      </c>
+      <c r="AA154" s="10">
+        <v>149350.0</v>
+      </c>
+      <c r="AB154" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC154" s="11">
+        <v>215362.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F155" s="6">
+        <v>21606.0</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I155" s="6">
+        <v>24924.0</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K155" s="6">
+        <v>25072.0</v>
+      </c>
+      <c r="L155" s="6">
+        <v>27750.0</v>
+      </c>
+      <c r="M155" s="6">
+        <v>28244.0</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O155" s="6">
+        <v>22999.0</v>
+      </c>
+      <c r="P155" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q155" s="6">
+        <v>25876.0</v>
+      </c>
+      <c r="R155" s="6">
+        <v>18831.0</v>
+      </c>
+      <c r="S155" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T155" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U155" s="6">
+        <v>17617.0</v>
+      </c>
+      <c r="V155" s="6">
+        <v>19561.0</v>
+      </c>
+      <c r="W155" s="6">
+        <v>22539.0</v>
+      </c>
+      <c r="X155" s="6">
+        <v>53515.0</v>
+      </c>
+      <c r="Y155" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z155" s="6">
+        <v>53735.0</v>
+      </c>
+      <c r="AA155" s="6">
+        <v>60265.0</v>
+      </c>
+      <c r="AB155" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC155" s="7">
+        <v>63841.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F156" s="10">
+        <v>40309.0</v>
+      </c>
+      <c r="G156" s="10">
+        <v>42923.0</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I156" s="10">
+        <v>33626.0</v>
+      </c>
+      <c r="J156" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K156" s="10">
+        <v>34477.0</v>
+      </c>
+      <c r="L156" s="10">
+        <v>34013.0</v>
+      </c>
+      <c r="M156" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N156" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O156" s="10">
+        <v>34573.0</v>
+      </c>
+      <c r="P156" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q156" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R156" s="10">
+        <v>30601.0</v>
+      </c>
+      <c r="S156" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T156" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U156" s="10">
+        <v>29236.0</v>
+      </c>
+      <c r="V156" s="10">
+        <v>30450.0</v>
+      </c>
+      <c r="W156" s="10">
+        <v>31229.0</v>
+      </c>
+      <c r="X156" s="10">
+        <v>82520.0</v>
+      </c>
+      <c r="Y156" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z156" s="10">
+        <v>103223.0</v>
+      </c>
+      <c r="AA156" s="10">
+        <v>96327.0</v>
+      </c>
+      <c r="AB156" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC156" s="11">
+        <v>102241.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F157" s="6">
+        <v>61202.0</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H157" s="6">
+        <v>101106.0</v>
+      </c>
+      <c r="I157" s="6">
+        <v>65323.0</v>
+      </c>
+      <c r="J157" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K157" s="6">
+        <v>66039.0</v>
+      </c>
+      <c r="L157" s="6">
+        <v>102678.0</v>
+      </c>
+      <c r="M157" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N157" s="6">
+        <v>174661.0</v>
+      </c>
+      <c r="O157" s="6">
+        <v>55738.0</v>
+      </c>
+      <c r="P157" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q157" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R157" s="6">
+        <v>55806.0</v>
+      </c>
+      <c r="S157" s="6">
+        <v>62514.0</v>
+      </c>
+      <c r="T157" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U157" s="6">
+        <v>55026.0</v>
+      </c>
+      <c r="V157" s="6">
+        <v>57666.0</v>
+      </c>
+      <c r="W157" s="6">
+        <v>61059.0</v>
+      </c>
+      <c r="X157" s="6">
+        <v>130400.0</v>
+      </c>
+      <c r="Y157" s="6">
+        <v>167094.0</v>
+      </c>
+      <c r="Z157" s="6">
+        <v>151326.0</v>
+      </c>
+      <c r="AA157" s="6">
+        <v>128672.0</v>
+      </c>
+      <c r="AB157" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC157" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F158" s="10">
+        <v>163696.0</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I158" s="10">
+        <v>134966.0</v>
+      </c>
+      <c r="J158" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K158" s="10">
+        <v>185618.0</v>
+      </c>
+      <c r="L158" s="10">
+        <v>234975.0</v>
+      </c>
+      <c r="M158" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N158" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O158" s="10">
+        <v>147905.0</v>
+      </c>
+      <c r="P158" s="10">
+        <v>216344.0</v>
+      </c>
+      <c r="Q158" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R158" s="10">
+        <v>145516.0</v>
+      </c>
+      <c r="S158" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T158" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U158" s="10">
+        <v>129760.0</v>
+      </c>
+      <c r="V158" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W158" s="10">
+        <v>144655.0</v>
+      </c>
+      <c r="X158" s="10">
+        <v>225180.0</v>
+      </c>
+      <c r="Y158" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z158" s="10">
+        <v>253381.0</v>
+      </c>
+      <c r="AA158" s="10">
+        <v>198324.0</v>
+      </c>
+      <c r="AB158" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC158" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F159" s="6">
+        <v>188848.0</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H159" s="6">
+        <v>272505.0</v>
+      </c>
+      <c r="I159" s="6">
+        <v>169782.0</v>
+      </c>
+      <c r="J159" s="6">
+        <v>169812.0</v>
+      </c>
+      <c r="K159" s="6">
+        <v>195805.0</v>
+      </c>
+      <c r="L159" s="6">
+        <v>167478.0</v>
+      </c>
+      <c r="M159" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N159" s="6">
+        <v>200832.0</v>
+      </c>
+      <c r="O159" s="6">
+        <v>149855.0</v>
+      </c>
+      <c r="P159" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q159" s="6">
+        <v>191480.0</v>
+      </c>
+      <c r="R159" s="6">
+        <v>156351.0</v>
+      </c>
+      <c r="S159" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T159" s="6">
+        <v>157727.0</v>
+      </c>
+      <c r="U159" s="6">
+        <v>139746.0</v>
+      </c>
+      <c r="V159" s="6">
+        <v>144008.0</v>
+      </c>
+      <c r="W159" s="6">
+        <v>154903.0</v>
+      </c>
+      <c r="X159" s="6">
+        <v>249398.0</v>
+      </c>
+      <c r="Y159" s="6">
+        <v>262550.0</v>
+      </c>
+      <c r="Z159" s="6">
+        <v>269324.0</v>
+      </c>
+      <c r="AA159" s="6">
+        <v>259465.0</v>
+      </c>
+      <c r="AB159" s="6">
+        <v>260568.0</v>
+      </c>
+      <c r="AC159" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F160" s="6">
+        <v>26784.0</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H160" s="6">
+        <v>48563.0</v>
+      </c>
+      <c r="I160" s="6">
+        <v>20037.0</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L160" s="6">
+        <v>22978.0</v>
+      </c>
+      <c r="M160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O160" s="6">
+        <v>19509.0</v>
+      </c>
+      <c r="P160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R160" s="6">
+        <v>18490.0</v>
+      </c>
+      <c r="S160" s="6">
+        <v>24562.0</v>
+      </c>
+      <c r="T160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U160" s="6">
+        <v>17756.0</v>
+      </c>
+      <c r="V160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W160" s="6">
+        <v>18882.0</v>
+      </c>
+      <c r="X160" s="6">
+        <v>66749.0</v>
+      </c>
+      <c r="Y160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z160" s="6">
+        <v>137669.0</v>
+      </c>
+      <c r="AA160" s="6">
+        <v>60493.0</v>
+      </c>
+      <c r="AB160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC160" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F161" s="10">
+        <v>112209.0</v>
+      </c>
+      <c r="G161" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H161" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I161" s="10">
+        <v>136490.0</v>
+      </c>
+      <c r="J161" s="10">
+        <v>148068.0</v>
+      </c>
+      <c r="K161" s="10">
+        <v>155573.0</v>
+      </c>
+      <c r="L161" s="10">
+        <v>126890.0</v>
+      </c>
+      <c r="M161" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N161" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O161" s="10">
+        <v>107939.0</v>
+      </c>
+      <c r="P161" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q161" s="10">
+        <v>160361.0</v>
+      </c>
+      <c r="R161" s="10">
+        <v>120159.0</v>
+      </c>
+      <c r="S161" s="10">
+        <v>132780.0</v>
+      </c>
+      <c r="T161" s="10">
+        <v>129509.0</v>
+      </c>
+      <c r="U161" s="10">
+        <v>101144.0</v>
+      </c>
+      <c r="V161" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W161" s="10">
+        <v>119326.0</v>
+      </c>
+      <c r="X161" s="10">
+        <v>161858.0</v>
+      </c>
+      <c r="Y161" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z161" s="10">
+        <v>192292.0</v>
+      </c>
+      <c r="AA161" s="10">
+        <v>151268.0</v>
+      </c>
+      <c r="AB161" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC161" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I162" s="6">
+        <v>87161.0</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U162" s="6">
+        <v>52398.0</v>
+      </c>
+      <c r="V162" s="6">
+        <v>90372.0</v>
+      </c>
+      <c r="W162" s="6">
+        <v>81644.0</v>
+      </c>
+      <c r="X162" s="6">
+        <v>102621.0</v>
+      </c>
+      <c r="Y162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA162" s="6">
+        <v>140783.0</v>
+      </c>
+      <c r="AB162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC162" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F163" s="10">
+        <v>16814.0</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H163" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I163" s="10">
+        <v>17131.0</v>
+      </c>
+      <c r="J163" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K163" s="10">
+        <v>21256.0</v>
+      </c>
+      <c r="L163" s="10">
+        <v>15946.0</v>
+      </c>
+      <c r="M163" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N163" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O163" s="10">
+        <v>12602.0</v>
+      </c>
+      <c r="P163" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q163" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R163" s="10">
+        <v>13737.0</v>
+      </c>
+      <c r="S163" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T163" s="10">
+        <v>16147.0</v>
+      </c>
+      <c r="U163" s="10">
+        <v>12456.0</v>
+      </c>
+      <c r="V163" s="10">
+        <v>15165.0</v>
+      </c>
+      <c r="W163" s="10">
+        <v>15428.0</v>
+      </c>
+      <c r="X163" s="10">
+        <v>40462.0</v>
+      </c>
+      <c r="Y163" s="10">
+        <v>44964.0</v>
+      </c>
+      <c r="Z163" s="10">
+        <v>52806.0</v>
+      </c>
+      <c r="AA163" s="10">
+        <v>43418.0</v>
+      </c>
+      <c r="AB163" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC163" s="11">
+        <v>54588.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F164" s="6">
+        <v>21277.0</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I164" s="6">
+        <v>20506.0</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K164" s="6">
+        <v>25676.0</v>
+      </c>
+      <c r="L164" s="6">
+        <v>30603.0</v>
+      </c>
+      <c r="M164" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N164" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O164" s="6">
+        <v>22445.0</v>
+      </c>
+      <c r="P164" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q164" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R164" s="6">
+        <v>19905.0</v>
+      </c>
+      <c r="S164" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T164" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U164" s="6">
+        <v>18578.0</v>
+      </c>
+      <c r="V164" s="6">
+        <v>23835.0</v>
+      </c>
+      <c r="W164" s="6">
+        <v>24285.0</v>
+      </c>
+      <c r="X164" s="6">
+        <v>75254.0</v>
+      </c>
+      <c r="Y164" s="6">
+        <v>99001.0</v>
+      </c>
+      <c r="Z164" s="6">
+        <v>110328.0</v>
+      </c>
+      <c r="AA164" s="6">
+        <v>76988.0</v>
+      </c>
+      <c r="AB164" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC164" s="7">
+        <v>84373.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F165" s="10">
+        <v>34439.0</v>
+      </c>
+      <c r="G165" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H165" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I165" s="10">
+        <v>38198.0</v>
+      </c>
+      <c r="J165" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K165" s="10">
+        <v>58853.0</v>
+      </c>
+      <c r="L165" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M165" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N165" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O165" s="10">
+        <v>38328.0</v>
+      </c>
+      <c r="P165" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q165" s="10">
+        <v>50265.0</v>
+      </c>
+      <c r="R165" s="10">
+        <v>34488.0</v>
+      </c>
+      <c r="S165" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T165" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U165" s="10">
+        <v>33924.0</v>
+      </c>
+      <c r="V165" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W165" s="10">
+        <v>43455.0</v>
+      </c>
+      <c r="X165" s="10">
+        <v>110476.0</v>
+      </c>
+      <c r="Y165" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z165" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA165" s="10">
+        <v>109749.0</v>
+      </c>
+      <c r="AB165" s="10">
+        <v>180080.0</v>
+      </c>
+      <c r="AC165" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F166" s="6">
+        <v>25700.0</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I166" s="6">
+        <v>18973.0</v>
+      </c>
+      <c r="J166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N166" s="6">
+        <v>56914.0</v>
+      </c>
+      <c r="O166" s="6">
+        <v>19337.0</v>
+      </c>
+      <c r="P166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R166" s="6">
+        <v>16590.0</v>
+      </c>
+      <c r="S166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U166" s="6">
+        <v>14902.0</v>
+      </c>
+      <c r="V166" s="6">
+        <v>16638.0</v>
+      </c>
+      <c r="W166" s="6">
+        <v>17809.0</v>
+      </c>
+      <c r="X166" s="6">
+        <v>72060.0</v>
+      </c>
+      <c r="Y166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z166" s="6">
+        <v>75920.0</v>
+      </c>
+      <c r="AA166" s="6">
+        <v>69250.0</v>
+      </c>
+      <c r="AB166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC166" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F167" s="10">
+        <v>87038.0</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I167" s="10">
+        <v>113564.0</v>
+      </c>
+      <c r="J167" s="10">
+        <v>116113.0</v>
+      </c>
+      <c r="K167" s="10">
+        <v>130991.0</v>
+      </c>
+      <c r="L167" s="10">
+        <v>105572.0</v>
+      </c>
+      <c r="M167" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N167" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O167" s="10">
+        <v>134302.0</v>
+      </c>
+      <c r="P167" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q167" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R167" s="10">
+        <v>90291.0</v>
+      </c>
+      <c r="S167" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T167" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U167" s="10">
+        <v>85753.0</v>
+      </c>
+      <c r="V167" s="10">
+        <v>111467.0</v>
+      </c>
+      <c r="W167" s="10">
+        <v>106337.0</v>
+      </c>
+      <c r="X167" s="10">
+        <v>201096.0</v>
+      </c>
+      <c r="Y167" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z167" s="10">
+        <v>248406.0</v>
+      </c>
+      <c r="AA167" s="10">
+        <v>169408.0</v>
+      </c>
+      <c r="AB167" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC167" s="11">
+        <v>253456.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F168" s="9">
+        <v>236395.0</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I168" s="6">
+        <v>209849.0</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K168" s="6">
+        <v>211353.0</v>
+      </c>
+      <c r="L168" s="6">
+        <v>204780.0</v>
+      </c>
+      <c r="M168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O168" s="6">
+        <v>224446.0</v>
+      </c>
+      <c r="P168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R168" s="6">
+        <v>182166.0</v>
+      </c>
+      <c r="S168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U168" s="6">
+        <v>178235.0</v>
+      </c>
+      <c r="V168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W168" s="6">
+        <v>192602.0</v>
+      </c>
+      <c r="X168" s="6">
+        <v>230190.0</v>
+      </c>
+      <c r="Y168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z168" s="6">
+        <v>237837.0</v>
+      </c>
+      <c r="AA168" s="6">
+        <v>227297.0</v>
+      </c>
+      <c r="AB168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC168" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F169" s="10">
+        <v>83113.0</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H169" s="10">
+        <v>103154.0</v>
+      </c>
+      <c r="I169" s="10">
+        <v>86740.0</v>
+      </c>
+      <c r="J169" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K169" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L169" s="10">
+        <v>70805.0</v>
+      </c>
+      <c r="M169" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N169" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O169" s="10">
+        <v>94766.0</v>
+      </c>
+      <c r="P169" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q169" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R169" s="10">
+        <v>75718.0</v>
+      </c>
+      <c r="S169" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T169" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U169" s="10">
+        <v>67383.0</v>
+      </c>
+      <c r="V169" s="10">
+        <v>70290.0</v>
+      </c>
+      <c r="W169" s="10">
+        <v>74937.0</v>
+      </c>
+      <c r="X169" s="10">
+        <v>137432.0</v>
+      </c>
+      <c r="Y169" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z169" s="10">
+        <v>146859.0</v>
+      </c>
+      <c r="AA169" s="10">
+        <v>93554.0</v>
+      </c>
+      <c r="AB169" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC169" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F170" s="6">
+        <v>118477.0</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H170" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I170" s="6">
+        <v>112466.0</v>
+      </c>
+      <c r="J170" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K170" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L170" s="6">
+        <v>112631.0</v>
+      </c>
+      <c r="M170" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N170" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O170" s="6">
+        <v>104917.0</v>
+      </c>
+      <c r="P170" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q170" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R170" s="6">
+        <v>104742.0</v>
+      </c>
+      <c r="S170" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T170" s="6">
+        <v>107944.0</v>
+      </c>
+      <c r="U170" s="6">
+        <v>102926.0</v>
+      </c>
+      <c r="V170" s="6">
+        <v>104570.0</v>
+      </c>
+      <c r="W170" s="6">
+        <v>104581.0</v>
+      </c>
+      <c r="X170" s="6">
+        <v>179865.0</v>
+      </c>
+      <c r="Y170" s="6">
+        <v>225309.0</v>
+      </c>
+      <c r="Z170" s="6">
+        <v>181398.0</v>
+      </c>
+      <c r="AA170" s="6">
+        <v>163981.0</v>
+      </c>
+      <c r="AB170" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC170" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I171" s="10">
+        <v>135104.0</v>
+      </c>
+      <c r="J171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q171" s="10">
+        <v>194182.0</v>
+      </c>
+      <c r="R171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U171" s="10">
+        <v>119303.0</v>
+      </c>
+      <c r="V171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W171" s="10">
+        <v>119548.0</v>
+      </c>
+      <c r="X171" s="10">
+        <v>189107.0</v>
+      </c>
+      <c r="Y171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA171" s="10">
+        <v>154760.0</v>
+      </c>
+      <c r="AB171" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC171" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F172" s="6">
+        <v>106363.0</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I172" s="6">
+        <v>111982.0</v>
+      </c>
+      <c r="J172" s="6">
+        <v>118916.0</v>
+      </c>
+      <c r="K172" s="6">
+        <v>121598.0</v>
+      </c>
+      <c r="L172" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M172" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N172" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O172" s="6">
+        <v>108895.0</v>
+      </c>
+      <c r="P172" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q172" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R172" s="6">
+        <v>94087.0</v>
+      </c>
+      <c r="S172" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T172" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U172" s="6">
+        <v>93654.0</v>
+      </c>
+      <c r="V172" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W172" s="6">
+        <v>95858.0</v>
+      </c>
+      <c r="X172" s="6">
+        <v>209093.0</v>
+      </c>
+      <c r="Y172" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z172" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA172" s="6">
+        <v>169305.0</v>
+      </c>
+      <c r="AB172" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC172" s="7">
+        <v>204458.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I173" s="10">
+        <v>245020.0</v>
+      </c>
+      <c r="J173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L173" s="10">
+        <v>254731.0</v>
+      </c>
+      <c r="M173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U173" s="10">
+        <v>202371.0</v>
+      </c>
+      <c r="V173" s="10">
+        <v>233992.0</v>
+      </c>
+      <c r="W173" s="10">
+        <v>210615.0</v>
+      </c>
+      <c r="X173" s="10">
+        <v>243261.0</v>
+      </c>
+      <c r="Y173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA173" s="10">
+        <v>221379.0</v>
+      </c>
+      <c r="AB173" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC173" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="AD1:AE1"/>
